--- a/summaries/seqRunSummary.xlsx
+++ b/summaries/seqRunSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="703">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,6 +38,177 @@
     <t xml:space="preserve">lineage</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-01-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JHLHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0626-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molpath-seq1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/22/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0637-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHS21001204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/22/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0638-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHS19005093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0639-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHS19029976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0640-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHS19010094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0641-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUTE21000985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0642-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHS21000915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0643-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUTE21000991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0644-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUTE21001041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0645-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUTE21000990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0646-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUTE21000998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0647-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISONS21001145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0648-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISONS21001140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0649-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISONS21001141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0650-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISONS21001144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0651-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISONS21001143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9972-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seqRunControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/29/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5%</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021-01-26</t>
   </si>
   <si>
@@ -68,9 +239,6 @@
     <t xml:space="preserve">2007</t>
   </si>
   <si>
-    <t xml:space="preserve">99.8%</t>
-  </si>
-  <si>
     <t xml:space="preserve">B.1.234</t>
   </si>
   <si>
@@ -89,36 +257,24 @@
     <t xml:space="preserve">1974</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.304</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0606-1</t>
   </si>
   <si>
     <t xml:space="preserve">3057</t>
   </si>
   <si>
-    <t xml:space="preserve">99.9%</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0607-1</t>
   </si>
   <si>
     <t xml:space="preserve">3120</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0608-1</t>
   </si>
   <si>
     <t xml:space="preserve">2456</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.243</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0609-1</t>
   </si>
   <si>
@@ -182,9 +338,6 @@
     <t xml:space="preserve">VSP9973-1</t>
   </si>
   <si>
-    <t xml:space="preserve">seqRunControl</t>
-  </si>
-  <si>
     <t xml:space="preserve">1/27/2020</t>
   </si>
   <si>
@@ -209,12 +362,6 @@
     <t xml:space="preserve">10/12/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">99.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0406-2</t>
   </si>
   <si>
@@ -287,9 +434,6 @@
     <t xml:space="preserve">11/4/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0460-2</t>
   </si>
   <si>
@@ -383,9 +527,6 @@
     <t xml:space="preserve">VSP9974-1</t>
   </si>
   <si>
-    <t xml:space="preserve">1/22/2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.5%</t>
   </si>
   <si>
@@ -398,9 +539,6 @@
     <t xml:space="preserve">VSP0563-3</t>
   </si>
   <si>
-    <t xml:space="preserve">Dept of Health</t>
-  </si>
-  <si>
     <t xml:space="preserve">DOH1</t>
   </si>
   <si>
@@ -416,9 +554,6 @@
     <t xml:space="preserve">VSP0571-2</t>
   </si>
   <si>
-    <t xml:space="preserve">HUP</t>
-  </si>
-  <si>
     <t xml:space="preserve">sdrop1_molpath</t>
   </si>
   <si>
@@ -644,9 +779,6 @@
     <t xml:space="preserve">2757</t>
   </si>
   <si>
-    <t xml:space="preserve">99.7%</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0539-1</t>
   </si>
   <si>
@@ -1530,9 +1662,6 @@
   </si>
   <si>
     <t xml:space="preserve">VSP0045-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.5</t>
   </si>
   <si>
     <t xml:space="preserve">VSP0047-1</t>
@@ -2371,7 +2500,9 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2"/>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2381,23 +2512,21 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2407,23 +2536,21 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2433,22 +2560,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -2459,22 +2586,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -2485,23 +2612,21 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2511,22 +2636,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -2537,22 +2662,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -2563,21 +2688,23 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10"/>
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2587,22 +2714,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -2613,22 +2740,22 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -2639,22 +2766,22 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -2665,22 +2792,22 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -2691,22 +2818,22 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -2717,22 +2844,22 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -2743,22 +2870,22 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -2769,171 +2896,171 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" t="s">
-        <v>66</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20"/>
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
         <v>31</v>
@@ -2941,1584 +3068,1588 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
         <v>91</v>
       </c>
+      <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
         <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
         <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
         <v>95</v>
       </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" t="s">
-        <v>96</v>
-      </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="H33" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
         <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" t="s">
-        <v>19</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
         <v>118</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" t="s">
-        <v>34</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="H37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" t="s">
         <v>122</v>
       </c>
-      <c r="D38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>123</v>
       </c>
-      <c r="G38" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38"/>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" t="s">
         <v>125</v>
       </c>
-      <c r="B39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" t="s">
-        <v>129</v>
-      </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
         <v>126</v>
       </c>
-      <c r="C40" t="s">
-        <v>133</v>
-      </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F41" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G41" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41"/>
+        <v>55</v>
+      </c>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>143</v>
-      </c>
-      <c r="H42"/>
+        <v>30</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F43" t="s">
         <v>136</v>
       </c>
       <c r="G43" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43"/>
+        <v>30</v>
+      </c>
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" t="s">
         <v>138</v>
       </c>
-      <c r="E44" t="s">
-        <v>148</v>
-      </c>
       <c r="F44" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G44" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44"/>
+        <v>30</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F45" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>152</v>
-      </c>
-      <c r="H45"/>
+        <v>30</v>
+      </c>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F46" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G46" t="s">
-        <v>155</v>
-      </c>
-      <c r="H46"/>
+        <v>30</v>
+      </c>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F47" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G47" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="H48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="G49" t="s">
-        <v>162</v>
-      </c>
-      <c r="H49"/>
+        <v>30</v>
+      </c>
+      <c r="H49" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" t="s">
         <v>156</v>
       </c>
-      <c r="B50" t="s">
+      <c r="F50" t="s">
         <v>157</v>
       </c>
-      <c r="C50" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" t="s">
-        <v>142</v>
-      </c>
-      <c r="F50" t="s">
-        <v>136</v>
-      </c>
       <c r="G50" t="s">
-        <v>164</v>
-      </c>
-      <c r="H50"/>
+        <v>30</v>
+      </c>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F51" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="G51" t="s">
-        <v>166</v>
-      </c>
-      <c r="H51"/>
+        <v>55</v>
+      </c>
+      <c r="H51" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F52" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="G52" t="s">
-        <v>168</v>
-      </c>
-      <c r="H52"/>
+        <v>30</v>
+      </c>
+      <c r="H52" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F53" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="G53" t="s">
-        <v>170</v>
-      </c>
-      <c r="H53"/>
+        <v>167</v>
+      </c>
+      <c r="H53" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="F54" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="G54" t="s">
-        <v>172</v>
-      </c>
-      <c r="H54"/>
+        <v>30</v>
+      </c>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="F55" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" t="s">
         <v>173</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>174</v>
       </c>
-      <c r="C56" t="s">
-        <v>179</v>
-      </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F56" t="s">
+        <v>176</v>
+      </c>
+      <c r="G56" t="s">
         <v>177</v>
       </c>
-      <c r="G56"/>
-      <c r="H56"/>
+      <c r="H56" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" t="s">
         <v>173</v>
       </c>
-      <c r="B57" t="s">
-        <v>174</v>
-      </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F57" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G57" t="s">
-        <v>183</v>
-      </c>
-      <c r="H57"/>
+        <v>55</v>
+      </c>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" t="s">
         <v>173</v>
       </c>
-      <c r="B58" t="s">
-        <v>174</v>
-      </c>
       <c r="C58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" t="s">
         <v>184</v>
       </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>181</v>
+      </c>
+      <c r="G58" t="s">
         <v>185</v>
       </c>
-      <c r="F58" t="s">
-        <v>177</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" t="s">
-        <v>34</v>
-      </c>
+      <c r="H58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" t="s">
         <v>173</v>
-      </c>
-      <c r="B59" t="s">
-        <v>174</v>
       </c>
       <c r="C59" t="s">
         <v>186</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="E59" t="s">
         <v>187</v>
       </c>
       <c r="F59" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
-      </c>
-      <c r="H59" t="s">
-        <v>22</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="H59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" t="s">
         <v>173</v>
       </c>
-      <c r="B60" t="s">
-        <v>174</v>
-      </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="E60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F60" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" t="s">
-        <v>31</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="H60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" t="s">
         <v>173</v>
       </c>
-      <c r="B61" t="s">
-        <v>174</v>
-      </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="E61" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F61" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G61" t="s">
-        <v>192</v>
-      </c>
-      <c r="H61" t="s">
-        <v>31</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="H61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>172</v>
+      </c>
+      <c r="B62" t="s">
         <v>173</v>
       </c>
-      <c r="B62" t="s">
-        <v>174</v>
-      </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="E62" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F62" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G62" t="s">
-        <v>195</v>
-      </c>
-      <c r="H62" t="s">
-        <v>31</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" t="s">
         <v>173</v>
       </c>
-      <c r="B63" t="s">
-        <v>174</v>
-      </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="F63" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" t="s">
-        <v>31</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="H63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F64" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="G64" t="s">
-        <v>201</v>
-      </c>
-      <c r="H64"/>
+        <v>204</v>
+      </c>
+      <c r="H64" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="F65" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G65" t="s">
-        <v>204</v>
-      </c>
-      <c r="H65"/>
+        <v>55</v>
+      </c>
+      <c r="H65" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="E66" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="F66" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G66" t="s">
         <v>207</v>
       </c>
-      <c r="H66" t="s">
-        <v>31</v>
-      </c>
+      <c r="H66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
         <v>208</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" t="s">
+        <v>181</v>
+      </c>
+      <c r="G67" t="s">
         <v>209</v>
       </c>
-      <c r="F67" t="s">
-        <v>198</v>
-      </c>
-      <c r="G67" t="s">
-        <v>210</v>
-      </c>
-      <c r="H67" t="s">
-        <v>31</v>
-      </c>
+      <c r="H67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" t="s">
+        <v>183</v>
+      </c>
+      <c r="E68" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" t="s">
+        <v>181</v>
+      </c>
+      <c r="G68" t="s">
         <v>211</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" t="s">
-        <v>212</v>
-      </c>
-      <c r="F68" t="s">
-        <v>198</v>
-      </c>
-      <c r="G68" t="s">
-        <v>213</v>
       </c>
       <c r="H68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="F69" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G69" t="s">
-        <v>210</v>
-      </c>
-      <c r="H69" t="s">
-        <v>31</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="H69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="E70" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F70" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G70" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" t="s">
         <v>173</v>
       </c>
-      <c r="B71" t="s">
-        <v>174</v>
-      </c>
-      <c r="C71" t="s">
-        <v>219</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>220</v>
-      </c>
       <c r="F71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G71" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="H71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="C72" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" t="s">
         <v>221</v>
       </c>
-      <c r="D72" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>222</v>
       </c>
-      <c r="F72" t="s">
-        <v>198</v>
-      </c>
       <c r="G72" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" t="s">
-        <v>34</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="H72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F73" t="s">
-        <v>198</v>
-      </c>
-      <c r="G73" t="s">
-        <v>225</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G73"/>
       <c r="H73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="C74" t="s">
         <v>226</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s">
         <v>227</v>
       </c>
       <c r="F74" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G74" t="s">
-        <v>159</v>
-      </c>
-      <c r="H74" t="s">
-        <v>91</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="H74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="C75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F75" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F76" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G76" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="H76" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D77" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="F77" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G77" t="s">
-        <v>204</v>
-      </c>
-      <c r="H77"/>
+        <v>30</v>
+      </c>
+      <c r="H77" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" t="s">
         <v>235</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>68</v>
+      </c>
+      <c r="E78" t="s">
         <v>236</v>
       </c>
-      <c r="D78" t="s">
-        <v>62</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>222</v>
+      </c>
+      <c r="G78" t="s">
         <v>237</v>
       </c>
-      <c r="F78" t="s">
-        <v>238</v>
-      </c>
-      <c r="G78" t="s">
-        <v>18</v>
-      </c>
       <c r="H78" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E79" t="s">
         <v>239</v>
       </c>
-      <c r="D79" t="s">
-        <v>62</v>
-      </c>
-      <c r="E79" t="s">
-        <v>237</v>
-      </c>
       <c r="F79" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="G79" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="H79" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E80" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G80" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H80" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" t="s">
+        <v>245</v>
+      </c>
+      <c r="F81" t="s">
         <v>243</v>
       </c>
-      <c r="D81" t="s">
-        <v>62</v>
-      </c>
-      <c r="E81" t="s">
-        <v>237</v>
-      </c>
-      <c r="F81" t="s">
-        <v>244</v>
-      </c>
       <c r="G81" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D82" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F82" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G82" t="s">
-        <v>195</v>
-      </c>
-      <c r="H82" t="s">
-        <v>66</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D83" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E83" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F83" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G83" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="H83" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E84" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F84" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H84" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D85" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F85" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G85" t="s">
-        <v>28</v>
-      </c>
-      <c r="H85" t="s">
         <v>257</v>
       </c>
+      <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B86" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C86" t="s">
         <v>258</v>
       </c>
       <c r="D86" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E86" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F86" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="G86" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H86" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C87" t="s">
         <v>260</v>
       </c>
       <c r="D87" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E87" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="F87" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="G87" t="s">
         <v>262</v>
@@ -4527,4443 +4658,4875 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C88" t="s">
         <v>263</v>
       </c>
       <c r="D88" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E88" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="F88" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="G88" t="s">
-        <v>18</v>
-      </c>
-      <c r="H88" t="s">
-        <v>66</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="H88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B89" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D89" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F89" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G89" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H89" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C90" t="s">
+        <v>267</v>
+      </c>
+      <c r="D90" t="s">
+        <v>73</v>
+      </c>
+      <c r="E90" t="s">
         <v>268</v>
       </c>
-      <c r="D90" t="s">
-        <v>62</v>
-      </c>
-      <c r="E90" t="s">
-        <v>265</v>
-      </c>
       <c r="F90" t="s">
+        <v>243</v>
+      </c>
+      <c r="G90" t="s">
         <v>269</v>
       </c>
-      <c r="G90" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" t="s">
-        <v>267</v>
-      </c>
+      <c r="H90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B91" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C91" t="s">
         <v>270</v>
       </c>
       <c r="D91" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E91" t="s">
         <v>271</v>
       </c>
       <c r="F91" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="G91" t="s">
-        <v>273</v>
-      </c>
-      <c r="H91"/>
+        <v>204</v>
+      </c>
+      <c r="H91" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B92" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D92" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E92" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F92" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="G92" t="s">
-        <v>275</v>
-      </c>
-      <c r="H92"/>
+        <v>30</v>
+      </c>
+      <c r="H92" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D93" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E93" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F93" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="G93" t="s">
-        <v>124</v>
-      </c>
-      <c r="H93"/>
+        <v>55</v>
+      </c>
+      <c r="H93" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B94" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D94" t="s">
         <v>62</v>
       </c>
       <c r="E94" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="F94" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G94" t="s">
-        <v>28</v>
-      </c>
-      <c r="H94" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="H94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="B95" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="C95" t="s">
+        <v>280</v>
+      </c>
+      <c r="D95" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" t="s">
         <v>281</v>
-      </c>
-      <c r="D95" t="s">
-        <v>62</v>
-      </c>
-      <c r="E95" t="s">
-        <v>279</v>
       </c>
       <c r="F95" t="s">
         <v>282</v>
       </c>
       <c r="G95" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H95" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="B96" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="C96" t="s">
         <v>283</v>
       </c>
       <c r="D96" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E96" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="F96" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G96" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H96" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="B97" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="C97" t="s">
+        <v>284</v>
+      </c>
+      <c r="D97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E97" t="s">
         <v>285</v>
       </c>
-      <c r="D97" t="s">
-        <v>62</v>
-      </c>
-      <c r="E97" t="s">
-        <v>249</v>
-      </c>
       <c r="F97" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G97" t="s">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c r="H97" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="B98" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="C98" t="s">
         <v>287</v>
       </c>
       <c r="D98" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E98" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="F98" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G98" t="s">
-        <v>18</v>
-      </c>
-      <c r="H98" t="s">
-        <v>251</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="H98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="B99" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="C99" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D99" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E99" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="F99" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G99" t="s">
-        <v>290</v>
-      </c>
-      <c r="H99"/>
+        <v>240</v>
+      </c>
+      <c r="H99" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B100" t="s">
+        <v>279</v>
+      </c>
+      <c r="C100" t="s">
         <v>292</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>113</v>
+      </c>
+      <c r="E100" t="s">
         <v>293</v>
       </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
         <v>294</v>
       </c>
-      <c r="E100" t="s">
+      <c r="G100" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" t="s">
         <v>295</v>
       </c>
-      <c r="F100" t="s">
-        <v>296</v>
-      </c>
-      <c r="G100"/>
-      <c r="H100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B101" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C101" t="s">
+        <v>296</v>
+      </c>
+      <c r="D101" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" t="s">
+        <v>293</v>
+      </c>
+      <c r="F101" t="s">
         <v>297</v>
       </c>
-      <c r="D101" t="s">
-        <v>294</v>
-      </c>
-      <c r="E101" t="s">
-        <v>298</v>
-      </c>
-      <c r="F101" t="s">
-        <v>296</v>
-      </c>
-      <c r="G101"/>
-      <c r="H101"/>
+      <c r="G101" t="s">
+        <v>55</v>
+      </c>
+      <c r="H101" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B102" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C102" t="s">
+        <v>298</v>
+      </c>
+      <c r="D102" t="s">
+        <v>113</v>
+      </c>
+      <c r="E102" t="s">
         <v>299</v>
       </c>
-      <c r="D102" t="s">
-        <v>294</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>300</v>
       </c>
-      <c r="F102" t="s">
-        <v>296</v>
-      </c>
-      <c r="G102"/>
-      <c r="H102"/>
+      <c r="G102" t="s">
+        <v>55</v>
+      </c>
+      <c r="H102" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B103" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C103" t="s">
+        <v>302</v>
+      </c>
+      <c r="D103" t="s">
+        <v>113</v>
+      </c>
+      <c r="E103" t="s">
+        <v>299</v>
+      </c>
+      <c r="F103" t="s">
+        <v>303</v>
+      </c>
+      <c r="G103" t="s">
+        <v>55</v>
+      </c>
+      <c r="H103" t="s">
         <v>301</v>
       </c>
-      <c r="D103" t="s">
-        <v>294</v>
-      </c>
-      <c r="E103" t="s">
-        <v>302</v>
-      </c>
-      <c r="F103" t="s">
-        <v>296</v>
-      </c>
-      <c r="G103"/>
-      <c r="H103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B104" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C104" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D104" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="E104" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="F104" t="s">
-        <v>296</v>
-      </c>
-      <c r="G104"/>
+        <v>305</v>
+      </c>
+      <c r="G104" t="s">
+        <v>306</v>
+      </c>
       <c r="H104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B105" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C105" t="s">
+        <v>307</v>
+      </c>
+      <c r="D105" t="s">
+        <v>113</v>
+      </c>
+      <c r="E105" t="s">
+        <v>281</v>
+      </c>
+      <c r="F105" t="s">
         <v>305</v>
       </c>
-      <c r="D105" t="s">
-        <v>294</v>
-      </c>
-      <c r="E105" t="s">
-        <v>306</v>
-      </c>
-      <c r="F105" t="s">
-        <v>296</v>
-      </c>
-      <c r="G105"/>
-      <c r="H105"/>
+      <c r="G105" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B106" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C106" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D106" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="E106" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F106" t="s">
-        <v>296</v>
-      </c>
-      <c r="G106"/>
-      <c r="H106"/>
+        <v>310</v>
+      </c>
+      <c r="G106" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B107" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C107" t="s">
+        <v>312</v>
+      </c>
+      <c r="D107" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107" t="s">
         <v>309</v>
       </c>
-      <c r="D107" t="s">
-        <v>294</v>
-      </c>
-      <c r="E107" t="s">
-        <v>310</v>
-      </c>
       <c r="F107" t="s">
-        <v>296</v>
-      </c>
-      <c r="G107"/>
-      <c r="H107"/>
+        <v>313</v>
+      </c>
+      <c r="G107" t="s">
+        <v>30</v>
+      </c>
+      <c r="H107" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B108" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C108" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D108" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="E108" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F108" t="s">
-        <v>296</v>
-      </c>
-      <c r="G108"/>
+        <v>316</v>
+      </c>
+      <c r="G108" t="s">
+        <v>317</v>
+      </c>
       <c r="H108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B109" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C109" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D109" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="E109" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F109" t="s">
-        <v>296</v>
-      </c>
-      <c r="G109"/>
+        <v>316</v>
+      </c>
+      <c r="G109" t="s">
+        <v>319</v>
+      </c>
       <c r="H109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B110" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C110" t="s">
+        <v>320</v>
+      </c>
+      <c r="D110" t="s">
+        <v>113</v>
+      </c>
+      <c r="E110" t="s">
         <v>315</v>
       </c>
-      <c r="D110" t="s">
-        <v>294</v>
-      </c>
-      <c r="E110" t="s">
-        <v>316</v>
-      </c>
       <c r="F110" t="s">
-        <v>296</v>
-      </c>
-      <c r="G110"/>
+        <v>321</v>
+      </c>
+      <c r="G110" t="s">
+        <v>171</v>
+      </c>
       <c r="H110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B111" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C111" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D111" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="E111" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F111" t="s">
-        <v>296</v>
-      </c>
-      <c r="G111"/>
-      <c r="H111"/>
+        <v>324</v>
+      </c>
+      <c r="G111" t="s">
+        <v>55</v>
+      </c>
+      <c r="H111" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B112" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C112" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D112" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F112" t="s">
-        <v>296</v>
-      </c>
-      <c r="G112"/>
-      <c r="H112"/>
+        <v>326</v>
+      </c>
+      <c r="G112" t="s">
+        <v>55</v>
+      </c>
+      <c r="H112" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B113" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C113" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D113" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="E113" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="F113" t="s">
-        <v>296</v>
-      </c>
-      <c r="G113"/>
-      <c r="H113"/>
+        <v>328</v>
+      </c>
+      <c r="G113" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B114" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C114" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D114" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>293</v>
+      </c>
+      <c r="F114" t="s">
         <v>324</v>
       </c>
-      <c r="F114" t="s">
-        <v>296</v>
-      </c>
-      <c r="G114"/>
-      <c r="H114"/>
+      <c r="G114" t="s">
+        <v>330</v>
+      </c>
+      <c r="H114" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B115" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C115" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D115" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="E115" t="s">
+        <v>293</v>
+      </c>
+      <c r="F115" t="s">
         <v>326</v>
       </c>
-      <c r="F115" t="s">
-        <v>296</v>
-      </c>
-      <c r="G115"/>
-      <c r="H115"/>
+      <c r="G115" t="s">
+        <v>30</v>
+      </c>
+      <c r="H115" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B116" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C116" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D116" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E116" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F116" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G116" t="s">
-        <v>143</v>
+        <v>334</v>
       </c>
       <c r="H116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B117" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C117" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D117" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="E117" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F117" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G117"/>
       <c r="H117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B118" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C118" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D118" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="E118" t="s">
-        <v>241</v>
+        <v>342</v>
       </c>
       <c r="F118" t="s">
-        <v>242</v>
-      </c>
-      <c r="G118" t="s">
-        <v>28</v>
-      </c>
-      <c r="H118" t="s">
-        <v>66</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G118"/>
+      <c r="H118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B119" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C119" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D119" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="E119" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F119" t="s">
-        <v>244</v>
-      </c>
-      <c r="G119" t="s">
-        <v>28</v>
-      </c>
-      <c r="H119" t="s">
-        <v>66</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G119"/>
+      <c r="H119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B120" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C120" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D120" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="E120" t="s">
-        <v>241</v>
+        <v>346</v>
       </c>
       <c r="F120" t="s">
-        <v>247</v>
-      </c>
-      <c r="G120" t="s">
-        <v>18</v>
-      </c>
-      <c r="H120" t="s">
-        <v>66</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B121" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C121" t="s">
+        <v>347</v>
+      </c>
+      <c r="D121" t="s">
         <v>338</v>
       </c>
-      <c r="D121" t="s">
-        <v>62</v>
-      </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="F121" t="s">
-        <v>247</v>
-      </c>
-      <c r="G121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H121" t="s">
-        <v>66</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G121"/>
+      <c r="H121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B122" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C122" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D122" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="E122" t="s">
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="F122" t="s">
-        <v>266</v>
-      </c>
-      <c r="G122" t="s">
-        <v>18</v>
-      </c>
-      <c r="H122" t="s">
-        <v>267</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G122"/>
+      <c r="H122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B123" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C123" t="s">
+        <v>351</v>
+      </c>
+      <c r="D123" t="s">
+        <v>338</v>
+      </c>
+      <c r="E123" t="s">
+        <v>352</v>
+      </c>
+      <c r="F123" t="s">
         <v>340</v>
       </c>
-      <c r="D123" t="s">
-        <v>62</v>
-      </c>
-      <c r="E123" t="s">
-        <v>265</v>
-      </c>
-      <c r="F123" t="s">
-        <v>269</v>
-      </c>
-      <c r="G123" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" t="s">
-        <v>267</v>
-      </c>
+      <c r="G123"/>
+      <c r="H123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B124" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C124" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="D124" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="E124" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="F124" t="s">
-        <v>277</v>
-      </c>
-      <c r="G124" t="s">
-        <v>342</v>
-      </c>
-      <c r="H124" t="s">
-        <v>343</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G124"/>
+      <c r="H124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B125" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C125" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D125" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="E125" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="F125" t="s">
-        <v>277</v>
-      </c>
-      <c r="G125" t="s">
-        <v>170</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G125"/>
       <c r="H125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B126" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C126" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D126" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="E126" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="F126" t="s">
-        <v>277</v>
-      </c>
-      <c r="G126" t="s">
-        <v>348</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G126"/>
       <c r="H126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B127" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C127" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D127" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="E127" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F127" t="s">
-        <v>351</v>
-      </c>
-      <c r="G127" t="s">
-        <v>352</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G127"/>
       <c r="H127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B128" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C128" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D128" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="E128" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F128" t="s">
-        <v>351</v>
-      </c>
-      <c r="G128" t="s">
-        <v>355</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G128"/>
       <c r="H128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B129" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C129" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D129" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="E129" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F129" t="s">
-        <v>358</v>
-      </c>
-      <c r="G129" t="s">
-        <v>52</v>
-      </c>
-      <c r="H129" t="s">
-        <v>359</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G129"/>
+      <c r="H129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B130" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C130" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D130" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="E130" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F130" t="s">
-        <v>362</v>
-      </c>
-      <c r="G130" t="s">
-        <v>363</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G130"/>
       <c r="H130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B131" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C131" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D131" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="E131" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F131" t="s">
-        <v>366</v>
-      </c>
-      <c r="G131" t="s">
-        <v>183</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G131"/>
       <c r="H131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B132" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C132" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D132" t="s">
-        <v>56</v>
+        <v>338</v>
       </c>
       <c r="E132" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="F132" t="s">
-        <v>368</v>
-      </c>
-      <c r="G132" t="s">
-        <v>369</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G132"/>
       <c r="H132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="B133" t="s">
+        <v>336</v>
+      </c>
+      <c r="C133" t="s">
         <v>371</v>
-      </c>
-      <c r="C133" t="s">
-        <v>372</v>
       </c>
       <c r="D133" t="s">
         <v>62</v>
       </c>
       <c r="E133" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="F133" t="s">
-        <v>238</v>
+        <v>372</v>
       </c>
       <c r="G133" t="s">
-        <v>18</v>
-      </c>
-      <c r="H133" t="s">
-        <v>66</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="H133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B134" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C134" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D134" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E134" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="F134" t="s">
-        <v>375</v>
-      </c>
-      <c r="G134" t="s">
-        <v>376</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="G134"/>
       <c r="H134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B135" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C135" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D135" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E135" t="s">
-        <v>378</v>
+        <v>285</v>
       </c>
       <c r="F135" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="G135" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H135" t="s">
-        <v>379</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B136" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C136" t="s">
+        <v>379</v>
+      </c>
+      <c r="D136" t="s">
+        <v>113</v>
+      </c>
+      <c r="E136" t="s">
         <v>380</v>
       </c>
-      <c r="D136" t="s">
-        <v>62</v>
-      </c>
-      <c r="E136" t="s">
-        <v>332</v>
-      </c>
       <c r="F136" t="s">
-        <v>247</v>
-      </c>
-      <c r="G136"/>
-      <c r="H136"/>
+        <v>288</v>
+      </c>
+      <c r="G136" t="s">
+        <v>55</v>
+      </c>
+      <c r="H136" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B137" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C137" t="s">
         <v>381</v>
       </c>
       <c r="D137" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E137" t="s">
-        <v>382</v>
+        <v>285</v>
       </c>
       <c r="F137" t="s">
-        <v>383</v>
+        <v>291</v>
       </c>
       <c r="G137" t="s">
-        <v>384</v>
+        <v>30</v>
       </c>
       <c r="H137" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B138" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C138" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D138" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E138" t="s">
-        <v>386</v>
+        <v>285</v>
       </c>
       <c r="F138" t="s">
-        <v>383</v>
+        <v>291</v>
       </c>
       <c r="G138" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H138" t="s">
-        <v>379</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B139" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C139" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D139" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E139" t="s">
-        <v>388</v>
+        <v>309</v>
       </c>
       <c r="F139" t="s">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="G139" t="s">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="H139" t="s">
-        <v>389</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B140" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C140" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D140" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E140" t="s">
-        <v>388</v>
+        <v>309</v>
       </c>
       <c r="F140" t="s">
-        <v>391</v>
+        <v>313</v>
       </c>
       <c r="G140" t="s">
-        <v>392</v>
+        <v>30</v>
       </c>
       <c r="H140" t="s">
-        <v>389</v>
+        <v>311</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B141" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C141" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D141" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E141" t="s">
-        <v>394</v>
+        <v>315</v>
       </c>
       <c r="F141" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="G141" t="s">
-        <v>18</v>
+        <v>386</v>
       </c>
       <c r="H141" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B142" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C142" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D142" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E142" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F142" t="s">
-        <v>396</v>
+        <v>321</v>
       </c>
       <c r="G142" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
       <c r="H142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B143" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C143" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D143" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E143" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F143" t="s">
-        <v>396</v>
+        <v>321</v>
       </c>
       <c r="G143" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H143"/>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B144" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C144" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D144" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E144" t="s">
         <v>394</v>
       </c>
       <c r="F144" t="s">
+        <v>395</v>
+      </c>
+      <c r="G144" t="s">
         <v>396</v>
-      </c>
-      <c r="G144" t="s">
-        <v>401</v>
       </c>
       <c r="H144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B145" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C145" t="s">
-        <v>260</v>
+        <v>397</v>
       </c>
       <c r="D145" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E145" t="s">
-        <v>237</v>
+        <v>398</v>
       </c>
       <c r="F145" t="s">
-        <v>261</v>
+        <v>395</v>
       </c>
       <c r="G145" t="s">
-        <v>262</v>
+        <v>399</v>
       </c>
       <c r="H145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B146" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C146" t="s">
+        <v>400</v>
+      </c>
+      <c r="D146" t="s">
+        <v>113</v>
+      </c>
+      <c r="E146" t="s">
+        <v>401</v>
+      </c>
+      <c r="F146" t="s">
         <v>402</v>
       </c>
-      <c r="D146" t="s">
-        <v>62</v>
-      </c>
-      <c r="E146" t="s">
-        <v>394</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
+        <v>104</v>
+      </c>
+      <c r="H146" t="s">
         <v>403</v>
       </c>
-      <c r="G146" t="s">
-        <v>404</v>
-      </c>
-      <c r="H146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B147" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C147" t="s">
+        <v>404</v>
+      </c>
+      <c r="D147" t="s">
+        <v>113</v>
+      </c>
+      <c r="E147" t="s">
         <v>405</v>
       </c>
-      <c r="D147" t="s">
-        <v>62</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>406</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>407</v>
-      </c>
-      <c r="G147" t="s">
-        <v>408</v>
       </c>
       <c r="H147"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B148" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C148" t="s">
+        <v>408</v>
+      </c>
+      <c r="D148" t="s">
+        <v>113</v>
+      </c>
+      <c r="E148" t="s">
         <v>409</v>
-      </c>
-      <c r="D148" t="s">
-        <v>56</v>
-      </c>
-      <c r="E148" t="s">
-        <v>371</v>
       </c>
       <c r="F148" t="s">
         <v>410</v>
       </c>
       <c r="G148" t="s">
-        <v>369</v>
+        <v>228</v>
       </c>
       <c r="H148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>373</v>
+      </c>
+      <c r="B149" t="s">
+        <v>374</v>
+      </c>
+      <c r="C149" t="s">
         <v>411</v>
-      </c>
-      <c r="B149" t="s">
-        <v>412</v>
-      </c>
-      <c r="C149" t="s">
-        <v>413</v>
       </c>
       <c r="D149" t="s">
         <v>62</v>
       </c>
       <c r="E149" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="F149" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G149" t="s">
-        <v>416</v>
-      </c>
-      <c r="H149" t="s">
-        <v>66</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="H149"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B150" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C150" t="s">
+        <v>416</v>
+      </c>
+      <c r="D150" t="s">
+        <v>113</v>
+      </c>
+      <c r="E150" t="s">
         <v>417</v>
       </c>
-      <c r="D150" t="s">
-        <v>62</v>
-      </c>
-      <c r="E150" t="s">
-        <v>414</v>
-      </c>
       <c r="F150" t="s">
-        <v>415</v>
+        <v>282</v>
       </c>
       <c r="G150" t="s">
-        <v>418</v>
+        <v>30</v>
       </c>
       <c r="H150" t="s">
-        <v>419</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B151" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C151" t="s">
+        <v>418</v>
+      </c>
+      <c r="D151" t="s">
+        <v>113</v>
+      </c>
+      <c r="E151" t="s">
+        <v>380</v>
+      </c>
+      <c r="F151" t="s">
+        <v>419</v>
+      </c>
+      <c r="G151" t="s">
         <v>420</v>
       </c>
-      <c r="D151" t="s">
-        <v>62</v>
-      </c>
-      <c r="E151" t="s">
-        <v>414</v>
-      </c>
-      <c r="F151" t="s">
-        <v>415</v>
-      </c>
-      <c r="G151" t="s">
-        <v>192</v>
-      </c>
-      <c r="H151" t="s">
-        <v>66</v>
-      </c>
+      <c r="H151"/>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B152" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C152" t="s">
         <v>421</v>
       </c>
       <c r="D152" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E152" t="s">
         <v>422</v>
       </c>
       <c r="F152" t="s">
+        <v>377</v>
+      </c>
+      <c r="G152" t="s">
+        <v>30</v>
+      </c>
+      <c r="H152" t="s">
         <v>423</v>
       </c>
-      <c r="G152" t="s">
-        <v>424</v>
-      </c>
-      <c r="H152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B153" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C153" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D153" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E153" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="F153" t="s">
-        <v>423</v>
-      </c>
-      <c r="G153" t="s">
-        <v>426</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G153"/>
       <c r="H153"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B154" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C154" t="s">
+        <v>425</v>
+      </c>
+      <c r="D154" t="s">
+        <v>113</v>
+      </c>
+      <c r="E154" t="s">
+        <v>426</v>
+      </c>
+      <c r="F154" t="s">
         <v>427</v>
-      </c>
-      <c r="D154" t="s">
-        <v>62</v>
-      </c>
-      <c r="E154" t="s">
-        <v>422</v>
-      </c>
-      <c r="F154" t="s">
-        <v>423</v>
       </c>
       <c r="G154" t="s">
         <v>428</v>
       </c>
-      <c r="H154"/>
+      <c r="H154" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B155" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C155" t="s">
         <v>429</v>
       </c>
       <c r="D155" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E155" t="s">
-        <v>237</v>
+        <v>430</v>
       </c>
       <c r="F155" t="s">
-        <v>238</v>
+        <v>427</v>
       </c>
       <c r="G155" t="s">
-        <v>430</v>
-      </c>
-      <c r="H155"/>
+        <v>30</v>
+      </c>
+      <c r="H155" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B156" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C156" t="s">
         <v>431</v>
       </c>
       <c r="D156" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E156" t="s">
-        <v>332</v>
+        <v>432</v>
       </c>
       <c r="F156" t="s">
-        <v>375</v>
-      </c>
-      <c r="G156"/>
-      <c r="H156"/>
+        <v>427</v>
+      </c>
+      <c r="G156" t="s">
+        <v>26</v>
+      </c>
+      <c r="H156" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B157" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C157" t="s">
+        <v>434</v>
+      </c>
+      <c r="D157" t="s">
+        <v>113</v>
+      </c>
+      <c r="E157" t="s">
         <v>432</v>
       </c>
-      <c r="D157" t="s">
-        <v>62</v>
-      </c>
-      <c r="E157" t="s">
-        <v>332</v>
-      </c>
       <c r="F157" t="s">
-        <v>375</v>
-      </c>
-      <c r="G157"/>
-      <c r="H157"/>
+        <v>435</v>
+      </c>
+      <c r="G157" t="s">
+        <v>436</v>
+      </c>
+      <c r="H157" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B158" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C158" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D158" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E158" t="s">
-        <v>332</v>
+        <v>438</v>
       </c>
       <c r="F158" t="s">
-        <v>333</v>
-      </c>
-      <c r="G158"/>
-      <c r="H158"/>
+        <v>297</v>
+      </c>
+      <c r="G158" t="s">
+        <v>30</v>
+      </c>
+      <c r="H158" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B159" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C159" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D159" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E159" t="s">
-        <v>237</v>
+        <v>438</v>
       </c>
       <c r="F159" t="s">
-        <v>244</v>
+        <v>440</v>
       </c>
       <c r="G159" t="s">
-        <v>435</v>
-      </c>
-      <c r="H159" t="s">
-        <v>66</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="H159"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B160" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C160" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D160" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E160" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F160" t="s">
-        <v>247</v>
+        <v>440</v>
       </c>
       <c r="G160" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B161" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C161" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D161" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E161" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F161" t="s">
-        <v>247</v>
+        <v>440</v>
       </c>
       <c r="G161" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="H161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B162" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C162" t="s">
-        <v>441</v>
+        <v>304</v>
       </c>
       <c r="D162" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E162" t="s">
-        <v>442</v>
+        <v>281</v>
       </c>
       <c r="F162" t="s">
-        <v>443</v>
+        <v>305</v>
       </c>
       <c r="G162" t="s">
-        <v>28</v>
-      </c>
-      <c r="H162" t="s">
-        <v>66</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="H162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B163" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C163" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D163" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E163" t="s">
-        <v>237</v>
+        <v>438</v>
       </c>
       <c r="F163" t="s">
-        <v>261</v>
+        <v>447</v>
       </c>
       <c r="G163" t="s">
-        <v>207</v>
-      </c>
-      <c r="H163" t="s">
-        <v>66</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="H163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B164" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C164" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D164" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E164" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="F164" t="s">
-        <v>277</v>
+        <v>451</v>
       </c>
       <c r="G164" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="H164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="B165" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="C165" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D165" t="s">
         <v>62</v>
       </c>
       <c r="E165" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="F165" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G165" t="s">
-        <v>452</v>
-      </c>
-      <c r="H165" t="s">
-        <v>453</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="H165"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B166" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C166" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D166" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E166" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F166" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G166" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="H166" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B167" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C167" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D167" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E167" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F167" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G167" t="s">
-        <v>392</v>
+        <v>462</v>
       </c>
       <c r="H167" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B168" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C168" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D168" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E168" t="s">
         <v>458</v>
       </c>
       <c r="F168" t="s">
-        <v>242</v>
+        <v>459</v>
       </c>
       <c r="G168" t="s">
-        <v>459</v>
-      </c>
-      <c r="H168"/>
+        <v>237</v>
+      </c>
+      <c r="H168" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B169" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C169" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D169" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E169" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F169" t="s">
-        <v>242</v>
+        <v>467</v>
       </c>
       <c r="G169" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="H169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B170" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C170" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D170" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E170" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F170" t="s">
-        <v>242</v>
+        <v>467</v>
       </c>
       <c r="G170" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B171" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C171" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D171" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E171" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F171" t="s">
-        <v>244</v>
+        <v>467</v>
       </c>
       <c r="G171" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="H171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B172" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C172" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D172" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E172" t="s">
-        <v>465</v>
+        <v>281</v>
       </c>
       <c r="F172" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="G172" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H172"/>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B173" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C173" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D173" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E173" t="s">
-        <v>465</v>
+        <v>376</v>
       </c>
       <c r="F173" t="s">
-        <v>244</v>
-      </c>
-      <c r="G173" t="s">
-        <v>470</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="G173"/>
       <c r="H173"/>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B174" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C174" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D174" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E174" t="s">
-        <v>472</v>
+        <v>376</v>
       </c>
       <c r="F174" t="s">
-        <v>247</v>
-      </c>
-      <c r="G174" t="s">
-        <v>473</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="G174"/>
       <c r="H174"/>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B175" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C175" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D175" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E175" t="s">
-        <v>472</v>
+        <v>376</v>
       </c>
       <c r="F175" t="s">
-        <v>247</v>
-      </c>
-      <c r="G175" t="s">
-        <v>475</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="G175"/>
       <c r="H175"/>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B176" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C176" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D176" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E176" t="s">
-        <v>472</v>
+        <v>281</v>
       </c>
       <c r="F176" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="G176" t="s">
-        <v>477</v>
-      </c>
-      <c r="H176"/>
+        <v>479</v>
+      </c>
+      <c r="H176" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B177" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C177" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D177" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E177" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="F177" t="s">
-        <v>479</v>
+        <v>291</v>
       </c>
       <c r="G177" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H177"/>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B178" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C178" t="s">
+        <v>483</v>
+      </c>
+      <c r="D178" t="s">
+        <v>113</v>
+      </c>
+      <c r="E178" t="s">
         <v>481</v>
       </c>
-      <c r="D178" t="s">
-        <v>62</v>
-      </c>
-      <c r="E178" t="s">
-        <v>442</v>
-      </c>
       <c r="F178" t="s">
-        <v>479</v>
+        <v>291</v>
       </c>
       <c r="G178" t="s">
-        <v>355</v>
+        <v>484</v>
       </c>
       <c r="H178"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B179" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C179" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D179" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E179" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="F179" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G179" t="s">
-        <v>483</v>
-      </c>
-      <c r="H179"/>
+        <v>55</v>
+      </c>
+      <c r="H179" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B180" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C180" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D180" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E180" t="s">
-        <v>448</v>
+        <v>281</v>
       </c>
       <c r="F180" t="s">
-        <v>485</v>
+        <v>305</v>
       </c>
       <c r="G180" t="s">
-        <v>14</v>
-      </c>
-      <c r="H180"/>
+        <v>252</v>
+      </c>
+      <c r="H180" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="B181" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="C181" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D181" t="s">
         <v>62</v>
       </c>
       <c r="E181" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="F181" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="G181" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H181"/>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B182" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C182" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D182" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E182" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F182" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="G182" t="s">
-        <v>18</v>
+        <v>496</v>
       </c>
       <c r="H182" t="s">
-        <v>66</v>
+        <v>497</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B183" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C183" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D183" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E183" t="s">
-        <v>388</v>
+        <v>494</v>
       </c>
       <c r="F183" t="s">
-        <v>383</v>
+        <v>495</v>
       </c>
       <c r="G183" t="s">
-        <v>18</v>
+        <v>499</v>
       </c>
       <c r="H183" t="s">
-        <v>389</v>
+        <v>497</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B184" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C184" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="D184" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E184" t="s">
-        <v>249</v>
+        <v>494</v>
       </c>
       <c r="F184" t="s">
-        <v>250</v>
+        <v>495</v>
       </c>
       <c r="G184" t="s">
-        <v>195</v>
+        <v>436</v>
       </c>
       <c r="H184" t="s">
-        <v>251</v>
+        <v>497</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B185" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C185" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D185" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E185" t="s">
-        <v>249</v>
+        <v>502</v>
       </c>
       <c r="F185" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="G185" t="s">
-        <v>28</v>
-      </c>
-      <c r="H185" t="s">
-        <v>251</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="H185"/>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B186" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C186" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D186" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E186" t="s">
-        <v>394</v>
+        <v>502</v>
       </c>
       <c r="F186" t="s">
-        <v>396</v>
+        <v>286</v>
       </c>
       <c r="G186" t="s">
-        <v>18</v>
-      </c>
-      <c r="H186" t="s">
-        <v>379</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="H186"/>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B187" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C187" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D187" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E187" t="s">
-        <v>394</v>
+        <v>502</v>
       </c>
       <c r="F187" t="s">
-        <v>396</v>
+        <v>286</v>
       </c>
       <c r="G187" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="H187"/>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B188" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C188" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D188" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E188" t="s">
-        <v>394</v>
+        <v>509</v>
       </c>
       <c r="F188" t="s">
-        <v>407</v>
+        <v>288</v>
       </c>
       <c r="G188" t="s">
-        <v>18</v>
-      </c>
-      <c r="H188" t="s">
-        <v>379</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="H188"/>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B189" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C189" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="D189" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E189" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="F189" t="s">
-        <v>500</v>
+        <v>288</v>
       </c>
       <c r="G189" t="s">
-        <v>501</v>
-      </c>
-      <c r="H189" t="s">
-        <v>502</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="H189"/>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B190" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C190" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D190" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E190" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="F190" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="G190" t="s">
-        <v>65</v>
-      </c>
-      <c r="H190" t="s">
-        <v>506</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="H190"/>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B191" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C191" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D191" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E191" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="F191" t="s">
-        <v>451</v>
+        <v>291</v>
       </c>
       <c r="G191" t="s">
-        <v>28</v>
-      </c>
-      <c r="H191" t="s">
-        <v>506</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="H191"/>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B192" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C192" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D192" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E192" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="F192" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="G192" t="s">
-        <v>28</v>
-      </c>
-      <c r="H192" t="s">
-        <v>506</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="H192"/>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B193" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C193" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D193" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E193" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="F193" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="G193" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="H193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B194" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C194" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D194" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E194" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="F194" t="s">
-        <v>443</v>
+        <v>523</v>
       </c>
       <c r="G194" t="s">
-        <v>210</v>
-      </c>
-      <c r="H194" t="s">
-        <v>66</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="H194"/>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B195" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C195" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="D195" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E195" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="F195" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="G195" t="s">
-        <v>513</v>
+        <v>399</v>
       </c>
       <c r="H195"/>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B196" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C196" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="D196" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E196" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="F196" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="G196" t="s">
-        <v>28</v>
-      </c>
-      <c r="H196" t="s">
-        <v>66</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="H196"/>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B197" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C197" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="D197" t="s">
         <v>62</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>492</v>
       </c>
       <c r="F197" t="s">
-        <v>396</v>
+        <v>529</v>
       </c>
       <c r="G197" t="s">
-        <v>18</v>
-      </c>
-      <c r="H197" t="s">
-        <v>66</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H197"/>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="B198" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C198" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="D198" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E198" t="s">
-        <v>237</v>
+        <v>481</v>
       </c>
       <c r="F198" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="G198" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="H198"/>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="B199" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C199" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="D199" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E199" t="s">
-        <v>237</v>
+        <v>535</v>
       </c>
       <c r="F199" t="s">
-        <v>261</v>
+        <v>487</v>
       </c>
       <c r="G199" t="s">
-        <v>519</v>
+        <v>30</v>
       </c>
       <c r="H199" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="B200" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C200" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="D200" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E200" t="s">
-        <v>237</v>
+        <v>432</v>
       </c>
       <c r="F200" t="s">
-        <v>261</v>
+        <v>427</v>
       </c>
       <c r="G200" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H200" t="s">
-        <v>66</v>
+        <v>433</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="B201" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C201" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="D201" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E201" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="F201" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="G201" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="H201" t="s">
-        <v>66</v>
+        <v>295</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="B202" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C202" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="D202" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E202" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="F202" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="G202" t="s">
-        <v>523</v>
+        <v>55</v>
       </c>
       <c r="H202" t="s">
-        <v>66</v>
+        <v>295</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="B203" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C203" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="D203" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E203" t="s">
-        <v>525</v>
+        <v>438</v>
       </c>
       <c r="F203" t="s">
-        <v>526</v>
+        <v>440</v>
       </c>
       <c r="G203" t="s">
-        <v>527</v>
-      </c>
-      <c r="H203"/>
+        <v>30</v>
+      </c>
+      <c r="H203" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="B204" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C204" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="D204" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E204" t="s">
-        <v>529</v>
+        <v>438</v>
       </c>
       <c r="F204" t="s">
-        <v>526</v>
+        <v>440</v>
       </c>
       <c r="G204" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="H204"/>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="B205" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C205" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="D205" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E205" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="F205" t="s">
-        <v>532</v>
+        <v>451</v>
       </c>
       <c r="G205" t="s">
-        <v>533</v>
-      </c>
-      <c r="H205"/>
+        <v>30</v>
+      </c>
+      <c r="H205" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B206" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C206" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="D206" t="s">
         <v>62</v>
       </c>
       <c r="E206" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F206" t="s">
-        <v>415</v>
+        <v>544</v>
       </c>
       <c r="G206" t="s">
-        <v>538</v>
-      </c>
-      <c r="H206"/>
+        <v>545</v>
+      </c>
+      <c r="H206" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B207" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C207" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="D207" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E207" t="s">
-        <v>414</v>
+        <v>516</v>
       </c>
       <c r="F207" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="G207" t="s">
-        <v>540</v>
-      </c>
-      <c r="H207"/>
+        <v>52</v>
+      </c>
+      <c r="H207" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B208" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C208" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D208" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E208" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="F208" t="s">
-        <v>415</v>
+        <v>495</v>
       </c>
       <c r="G208" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H208" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B209" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C209" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="D209" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E209" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="F209" t="s">
-        <v>415</v>
+        <v>286</v>
       </c>
       <c r="G209" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H209" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B210" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C210" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D210" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E210" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="F210" t="s">
-        <v>547</v>
+        <v>291</v>
       </c>
       <c r="G210" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="H210"/>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B211" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C211" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D211" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E211" t="s">
-        <v>546</v>
+        <v>486</v>
       </c>
       <c r="F211" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="G211" t="s">
-        <v>550</v>
-      </c>
-      <c r="H211"/>
+        <v>26</v>
+      </c>
+      <c r="H211" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B212" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C212" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D212" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E212" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="F212" t="s">
-        <v>423</v>
+        <v>523</v>
       </c>
       <c r="G212" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H212"/>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B213" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C213" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D213" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E213" t="s">
-        <v>554</v>
+        <v>486</v>
       </c>
       <c r="F213" t="s">
-        <v>333</v>
+        <v>523</v>
       </c>
       <c r="G213" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H213" t="s">
-        <v>379</v>
+        <v>49</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B214" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C214" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D214" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E214" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>333</v>
+        <v>440</v>
       </c>
       <c r="G214" t="s">
-        <v>556</v>
-      </c>
-      <c r="H214"/>
+        <v>30</v>
+      </c>
+      <c r="H214" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B215" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C215" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D215" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E215" t="s">
-        <v>472</v>
+        <v>281</v>
       </c>
       <c r="F215" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="G215" t="s">
-        <v>28</v>
-      </c>
-      <c r="H215" t="s">
-        <v>506</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="H215"/>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B216" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C216" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D216" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E216" t="s">
-        <v>559</v>
+        <v>281</v>
       </c>
       <c r="F216" t="s">
-        <v>451</v>
+        <v>305</v>
       </c>
       <c r="G216" t="s">
-        <v>28</v>
+        <v>562</v>
       </c>
       <c r="H216" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B217" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C217" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D217" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E217" t="s">
-        <v>450</v>
+        <v>281</v>
       </c>
       <c r="F217" t="s">
-        <v>451</v>
+        <v>305</v>
       </c>
       <c r="G217" t="s">
-        <v>561</v>
-      </c>
-      <c r="H217"/>
+        <v>30</v>
+      </c>
+      <c r="H217" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B218" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C218" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D218" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E218" t="s">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="F218" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="G218" t="s">
-        <v>563</v>
-      </c>
-      <c r="H218"/>
+        <v>30</v>
+      </c>
+      <c r="H218" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B219" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C219" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D219" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E219" t="s">
-        <v>237</v>
+        <v>405</v>
       </c>
       <c r="F219" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="G219" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H219" t="s">
-        <v>506</v>
+        <v>49</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B220" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C220" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D220" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E220" t="s">
-        <v>465</v>
+        <v>568</v>
       </c>
       <c r="F220" t="s">
-        <v>244</v>
+        <v>569</v>
       </c>
       <c r="G220" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H220"/>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B221" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C221" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D221" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E221" t="s">
-        <v>442</v>
+        <v>572</v>
       </c>
       <c r="F221" t="s">
-        <v>443</v>
+        <v>569</v>
       </c>
       <c r="G221" t="s">
-        <v>28</v>
-      </c>
-      <c r="H221" t="s">
-        <v>66</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="H221"/>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B222" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C222" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D222" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E222" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="F222" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="G222" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="H222"/>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B223" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C223" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D223" t="s">
-        <v>575</v>
+        <v>113</v>
       </c>
       <c r="E223" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F223" t="s">
-        <v>577</v>
+        <v>459</v>
       </c>
       <c r="G223" t="s">
-        <v>18</v>
+        <v>581</v>
       </c>
       <c r="H223"/>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B224" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C224" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D224" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E224" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="F224" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="G224" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="H224"/>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B225" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C225" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D225" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E225" t="s">
-        <v>373</v>
+        <v>585</v>
       </c>
       <c r="F225" t="s">
-        <v>238</v>
+        <v>459</v>
       </c>
       <c r="G225" t="s">
-        <v>418</v>
+        <v>30</v>
       </c>
       <c r="H225" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B226" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C226" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D226" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E226" t="s">
-        <v>237</v>
+        <v>587</v>
       </c>
       <c r="F226" t="s">
-        <v>238</v>
+        <v>459</v>
       </c>
       <c r="G226" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H226" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B227" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C227" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D227" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E227" t="s">
-        <v>237</v>
+        <v>589</v>
       </c>
       <c r="F227" t="s">
-        <v>238</v>
+        <v>590</v>
       </c>
       <c r="G227" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="H227"/>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B228" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C228" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="D228" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E228" t="s">
-        <v>336</v>
+        <v>589</v>
       </c>
       <c r="F228" t="s">
-        <v>375</v>
+        <v>467</v>
       </c>
       <c r="G228" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="H228"/>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B229" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C229" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D229" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E229" t="s">
-        <v>336</v>
+        <v>466</v>
       </c>
       <c r="F229" t="s">
-        <v>375</v>
+        <v>467</v>
       </c>
       <c r="G229" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="H229"/>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B230" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C230" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D230" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E230" t="s">
-        <v>332</v>
+        <v>597</v>
       </c>
       <c r="F230" t="s">
-        <v>375</v>
-      </c>
-      <c r="G230"/>
-      <c r="H230"/>
+        <v>377</v>
+      </c>
+      <c r="G230" t="s">
+        <v>30</v>
+      </c>
+      <c r="H230" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B231" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C231" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="D231" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E231" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="F231" t="s">
-        <v>375</v>
-      </c>
-      <c r="G231"/>
+        <v>377</v>
+      </c>
+      <c r="G231" t="s">
+        <v>599</v>
+      </c>
       <c r="H231"/>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B232" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C232" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="D232" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E232" t="s">
-        <v>332</v>
+        <v>516</v>
       </c>
       <c r="F232" t="s">
-        <v>333</v>
-      </c>
-      <c r="G232"/>
-      <c r="H232"/>
+        <v>377</v>
+      </c>
+      <c r="G232" t="s">
+        <v>55</v>
+      </c>
+      <c r="H232" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B233" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C233" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="D233" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E233" t="s">
-        <v>332</v>
+        <v>602</v>
       </c>
       <c r="F233" t="s">
-        <v>333</v>
-      </c>
-      <c r="G233"/>
-      <c r="H233"/>
+        <v>495</v>
+      </c>
+      <c r="G233" t="s">
+        <v>55</v>
+      </c>
+      <c r="H233" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B234" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C234" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="D234" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E234" t="s">
-        <v>554</v>
+        <v>494</v>
       </c>
       <c r="F234" t="s">
-        <v>333</v>
+        <v>495</v>
       </c>
       <c r="G234" t="s">
-        <v>52</v>
-      </c>
-      <c r="H234" t="s">
-        <v>379</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="H234"/>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B235" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C235" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="D235" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E235" t="s">
-        <v>378</v>
+        <v>502</v>
       </c>
       <c r="F235" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="G235" t="s">
-        <v>18</v>
-      </c>
-      <c r="H235" t="s">
-        <v>379</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="H235"/>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B236" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C236" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="D236" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E236" t="s">
-        <v>378</v>
+        <v>281</v>
       </c>
       <c r="F236" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="G236" t="s">
-        <v>595</v>
-      </c>
-      <c r="H236"/>
+        <v>608</v>
+      </c>
+      <c r="H236" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B237" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C237" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="D237" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E237" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="F237" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="G237" t="s">
-        <v>18</v>
-      </c>
-      <c r="H237" t="s">
-        <v>506</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="H237"/>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B238" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C238" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="D238" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E238" t="s">
-        <v>573</v>
+        <v>486</v>
       </c>
       <c r="F238" t="s">
-        <v>598</v>
+        <v>487</v>
       </c>
       <c r="G238" t="s">
-        <v>599</v>
-      </c>
-      <c r="H238"/>
+        <v>55</v>
+      </c>
+      <c r="H238" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="B239" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="C239" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="D239" t="s">
-        <v>575</v>
+        <v>62</v>
       </c>
       <c r="E239" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F239" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="G239" t="s">
-        <v>18</v>
+        <v>614</v>
       </c>
       <c r="H239"/>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B240" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C240" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="D240" t="s">
-        <v>62</v>
+        <v>618</v>
       </c>
       <c r="E240" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="F240" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="G240" t="s">
-        <v>18</v>
-      </c>
-      <c r="H240" t="s">
-        <v>66</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H240"/>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B241" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C241" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="D241" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E241" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="F241" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="G241" t="s">
-        <v>607</v>
-      </c>
-      <c r="H241" t="s">
-        <v>66</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="H241"/>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B242" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C242" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="D242" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E242" t="s">
-        <v>542</v>
+        <v>417</v>
       </c>
       <c r="F242" t="s">
-        <v>415</v>
+        <v>282</v>
       </c>
       <c r="G242" t="s">
-        <v>609</v>
-      </c>
-      <c r="H242"/>
+        <v>462</v>
+      </c>
+      <c r="H242" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B243" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C243" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="D243" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E243" t="s">
-        <v>544</v>
+        <v>281</v>
       </c>
       <c r="F243" t="s">
-        <v>415</v>
+        <v>282</v>
       </c>
       <c r="G243" t="s">
-        <v>611</v>
-      </c>
-      <c r="H243"/>
+        <v>30</v>
+      </c>
+      <c r="H243" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B244" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C244" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="D244" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E244" t="s">
-        <v>613</v>
+        <v>281</v>
       </c>
       <c r="F244" t="s">
-        <v>547</v>
+        <v>282</v>
       </c>
       <c r="G244" t="s">
-        <v>18</v>
-      </c>
-      <c r="H244" t="s">
-        <v>379</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="H244"/>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B245" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C245" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="D245" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E245" t="s">
-        <v>546</v>
+        <v>380</v>
       </c>
       <c r="F245" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G245" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="H245"/>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B246" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C246" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="D246" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E246" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="F246" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G246" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="H246"/>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B247" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C247" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="D247" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E247" t="s">
-        <v>619</v>
+        <v>376</v>
       </c>
       <c r="F247" t="s">
-        <v>423</v>
-      </c>
-      <c r="G247" t="s">
-        <v>620</v>
-      </c>
-      <c r="H247" t="s">
-        <v>66</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="G247"/>
+      <c r="H247"/>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B248" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C248" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="D248" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E248" t="s">
-        <v>255</v>
+        <v>376</v>
       </c>
       <c r="F248" t="s">
-        <v>256</v>
-      </c>
-      <c r="G248" t="s">
-        <v>28</v>
-      </c>
-      <c r="H248" t="s">
-        <v>257</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="G248"/>
+      <c r="H248"/>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B249" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C249" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="D249" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E249" t="s">
-        <v>255</v>
+        <v>376</v>
       </c>
       <c r="F249" t="s">
-        <v>256</v>
-      </c>
-      <c r="G249" t="s">
-        <v>28</v>
-      </c>
-      <c r="H249" t="s">
-        <v>257</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="G249"/>
+      <c r="H249"/>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B250" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C250" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="D250" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E250" t="s">
-        <v>255</v>
+        <v>376</v>
       </c>
       <c r="F250" t="s">
-        <v>259</v>
-      </c>
-      <c r="G250" t="s">
-        <v>28</v>
-      </c>
-      <c r="H250" t="s">
-        <v>257</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="G250"/>
+      <c r="H250"/>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B251" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C251" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="D251" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E251" t="s">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="F251" t="s">
-        <v>256</v>
+        <v>377</v>
       </c>
       <c r="G251" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="H251" t="s">
-        <v>626</v>
+        <v>423</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B252" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C252" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="D252" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E252" t="s">
-        <v>628</v>
+        <v>422</v>
       </c>
       <c r="F252" t="s">
-        <v>629</v>
+        <v>377</v>
       </c>
       <c r="G252" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H252" t="s">
-        <v>257</v>
+        <v>423</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B253" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C253" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="D253" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E253" t="s">
-        <v>628</v>
+        <v>422</v>
       </c>
       <c r="F253" t="s">
-        <v>631</v>
+        <v>377</v>
       </c>
       <c r="G253" t="s">
-        <v>28</v>
-      </c>
-      <c r="H253" t="s">
-        <v>257</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="H253"/>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B254" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C254" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D254" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E254" t="s">
-        <v>628</v>
+        <v>516</v>
       </c>
       <c r="F254" t="s">
-        <v>631</v>
+        <v>377</v>
       </c>
       <c r="G254" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H254" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B255" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C255" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="D255" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E255" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="F255" t="s">
-        <v>396</v>
+        <v>641</v>
       </c>
       <c r="G255" t="s">
-        <v>39</v>
+        <v>642</v>
       </c>
       <c r="H255"/>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="B256" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="C256" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="D256" t="s">
-        <v>56</v>
+        <v>618</v>
       </c>
       <c r="E256" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="F256" t="s">
-        <v>396</v>
+        <v>620</v>
       </c>
       <c r="G256" t="s">
-        <v>635</v>
+        <v>30</v>
       </c>
       <c r="H256"/>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="B257" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="C257" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="D257" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E257" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="F257" t="s">
-        <v>396</v>
+        <v>648</v>
       </c>
       <c r="G257" t="s">
-        <v>637</v>
-      </c>
-      <c r="H257"/>
+        <v>30</v>
+      </c>
+      <c r="H257" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="B258" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="C258" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="D258" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E258" t="s">
-        <v>601</v>
+        <v>458</v>
       </c>
       <c r="F258" t="s">
-        <v>396</v>
+        <v>459</v>
       </c>
       <c r="G258" t="s">
-        <v>639</v>
-      </c>
-      <c r="H258"/>
+        <v>650</v>
+      </c>
+      <c r="H258" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B259" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C259" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="D259" t="s">
-        <v>575</v>
+        <v>113</v>
       </c>
       <c r="E259" t="s">
-        <v>643</v>
+        <v>585</v>
       </c>
       <c r="F259" t="s">
-        <v>577</v>
+        <v>459</v>
       </c>
       <c r="G259" t="s">
-        <v>28</v>
+        <v>652</v>
       </c>
       <c r="H259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B260" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C260" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="D260" t="s">
-        <v>575</v>
+        <v>113</v>
       </c>
       <c r="E260" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="F260" t="s">
-        <v>577</v>
+        <v>459</v>
       </c>
       <c r="G260" t="s">
-        <v>18</v>
+        <v>654</v>
       </c>
       <c r="H260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B261" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C261" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="D261" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E261" t="s">
-        <v>537</v>
+        <v>656</v>
       </c>
       <c r="F261" t="s">
-        <v>415</v>
+        <v>590</v>
       </c>
       <c r="G261" t="s">
-        <v>646</v>
-      </c>
-      <c r="H261"/>
+        <v>30</v>
+      </c>
+      <c r="H261" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B262" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C262" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="D262" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E262" t="s">
-        <v>648</v>
+        <v>589</v>
       </c>
       <c r="F262" t="s">
-        <v>649</v>
+        <v>467</v>
       </c>
       <c r="G262" t="s">
-        <v>18</v>
-      </c>
-      <c r="H262" t="s">
-        <v>257</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="H262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B263" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C263" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="D263" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E263" t="s">
-        <v>613</v>
+        <v>466</v>
       </c>
       <c r="F263" t="s">
-        <v>547</v>
+        <v>467</v>
       </c>
       <c r="G263" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="H263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B264" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C264" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="D264" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E264" t="s">
-        <v>546</v>
+        <v>662</v>
       </c>
       <c r="F264" t="s">
-        <v>547</v>
+        <v>467</v>
       </c>
       <c r="G264" t="s">
-        <v>617</v>
-      </c>
-      <c r="H264"/>
+        <v>663</v>
+      </c>
+      <c r="H264" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B265" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C265" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="D265" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E265" t="s">
-        <v>641</v>
+        <v>299</v>
       </c>
       <c r="F265" t="s">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="G265" t="s">
-        <v>473</v>
-      </c>
-      <c r="H265"/>
+        <v>55</v>
+      </c>
+      <c r="H265" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B266" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C266" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="D266" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E266" t="s">
-        <v>641</v>
+        <v>299</v>
       </c>
       <c r="F266" t="s">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="G266" t="s">
-        <v>655</v>
-      </c>
-      <c r="H266"/>
+        <v>55</v>
+      </c>
+      <c r="H266" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B267" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C267" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="D267" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E267" t="s">
-        <v>641</v>
+        <v>299</v>
       </c>
       <c r="F267" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="G267" t="s">
-        <v>657</v>
-      </c>
-      <c r="H267"/>
+        <v>55</v>
+      </c>
+      <c r="H267" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B268" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C268" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="D268" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E268" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="F268" t="s">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="G268" t="s">
-        <v>659</v>
-      </c>
-      <c r="H268"/>
+        <v>55</v>
+      </c>
+      <c r="H268" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>643</v>
+      </c>
+      <c r="B269" t="s">
+        <v>644</v>
+      </c>
+      <c r="C269" t="s">
+        <v>670</v>
+      </c>
+      <c r="D269" t="s">
+        <v>113</v>
+      </c>
+      <c r="E269" t="s">
+        <v>671</v>
+      </c>
+      <c r="F269" t="s">
+        <v>672</v>
+      </c>
+      <c r="G269" t="s">
+        <v>55</v>
+      </c>
+      <c r="H269" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>643</v>
+      </c>
+      <c r="B270" t="s">
+        <v>644</v>
+      </c>
+      <c r="C270" t="s">
+        <v>673</v>
+      </c>
+      <c r="D270" t="s">
+        <v>113</v>
+      </c>
+      <c r="E270" t="s">
+        <v>671</v>
+      </c>
+      <c r="F270" t="s">
+        <v>674</v>
+      </c>
+      <c r="G270" t="s">
+        <v>55</v>
+      </c>
+      <c r="H270" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>643</v>
+      </c>
+      <c r="B271" t="s">
+        <v>644</v>
+      </c>
+      <c r="C271" t="s">
+        <v>675</v>
+      </c>
+      <c r="D271" t="s">
+        <v>113</v>
+      </c>
+      <c r="E271" t="s">
+        <v>671</v>
+      </c>
+      <c r="F271" t="s">
+        <v>674</v>
+      </c>
+      <c r="G271" t="s">
+        <v>55</v>
+      </c>
+      <c r="H271" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>643</v>
+      </c>
+      <c r="B272" t="s">
+        <v>644</v>
+      </c>
+      <c r="C272" t="s">
+        <v>676</v>
+      </c>
+      <c r="D272" t="s">
+        <v>62</v>
+      </c>
+      <c r="E272" t="s">
+        <v>644</v>
+      </c>
+      <c r="F272" t="s">
+        <v>440</v>
+      </c>
+      <c r="G272" t="s">
+        <v>91</v>
+      </c>
+      <c r="H272"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>643</v>
+      </c>
+      <c r="B273" t="s">
+        <v>644</v>
+      </c>
+      <c r="C273" t="s">
+        <v>677</v>
+      </c>
+      <c r="D273" t="s">
+        <v>62</v>
+      </c>
+      <c r="E273" t="s">
+        <v>644</v>
+      </c>
+      <c r="F273" t="s">
+        <v>440</v>
+      </c>
+      <c r="G273" t="s">
+        <v>678</v>
+      </c>
+      <c r="H273"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>643</v>
+      </c>
+      <c r="B274" t="s">
+        <v>644</v>
+      </c>
+      <c r="C274" t="s">
+        <v>679</v>
+      </c>
+      <c r="D274" t="s">
+        <v>62</v>
+      </c>
+      <c r="E274" t="s">
+        <v>644</v>
+      </c>
+      <c r="F274" t="s">
+        <v>440</v>
+      </c>
+      <c r="G274" t="s">
+        <v>680</v>
+      </c>
+      <c r="H274"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>643</v>
+      </c>
+      <c r="B275" t="s">
+        <v>644</v>
+      </c>
+      <c r="C275" t="s">
+        <v>681</v>
+      </c>
+      <c r="D275" t="s">
+        <v>62</v>
+      </c>
+      <c r="E275" t="s">
+        <v>644</v>
+      </c>
+      <c r="F275" t="s">
+        <v>440</v>
+      </c>
+      <c r="G275" t="s">
+        <v>682</v>
+      </c>
+      <c r="H275"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>683</v>
+      </c>
+      <c r="B276" t="s">
+        <v>684</v>
+      </c>
+      <c r="C276" t="s">
+        <v>685</v>
+      </c>
+      <c r="D276" t="s">
+        <v>618</v>
+      </c>
+      <c r="E276" t="s">
+        <v>686</v>
+      </c>
+      <c r="F276" t="s">
+        <v>620</v>
+      </c>
+      <c r="G276" t="s">
+        <v>55</v>
+      </c>
+      <c r="H276"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>683</v>
+      </c>
+      <c r="B277" t="s">
+        <v>684</v>
+      </c>
+      <c r="C277" t="s">
+        <v>687</v>
+      </c>
+      <c r="D277" t="s">
+        <v>618</v>
+      </c>
+      <c r="E277" t="s">
+        <v>619</v>
+      </c>
+      <c r="F277" t="s">
+        <v>620</v>
+      </c>
+      <c r="G277" t="s">
+        <v>30</v>
+      </c>
+      <c r="H277"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>683</v>
+      </c>
+      <c r="B278" t="s">
+        <v>684</v>
+      </c>
+      <c r="C278" t="s">
+        <v>688</v>
+      </c>
+      <c r="D278" t="s">
+        <v>113</v>
+      </c>
+      <c r="E278" t="s">
+        <v>580</v>
+      </c>
+      <c r="F278" t="s">
+        <v>459</v>
+      </c>
+      <c r="G278" t="s">
+        <v>689</v>
+      </c>
+      <c r="H278"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>683</v>
+      </c>
+      <c r="B279" t="s">
+        <v>684</v>
+      </c>
+      <c r="C279" t="s">
+        <v>690</v>
+      </c>
+      <c r="D279" t="s">
+        <v>113</v>
+      </c>
+      <c r="E279" t="s">
+        <v>691</v>
+      </c>
+      <c r="F279" t="s">
+        <v>692</v>
+      </c>
+      <c r="G279" t="s">
+        <v>30</v>
+      </c>
+      <c r="H279" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>683</v>
+      </c>
+      <c r="B280" t="s">
+        <v>684</v>
+      </c>
+      <c r="C280" t="s">
+        <v>693</v>
+      </c>
+      <c r="D280" t="s">
+        <v>113</v>
+      </c>
+      <c r="E280" t="s">
+        <v>656</v>
+      </c>
+      <c r="F280" t="s">
+        <v>590</v>
+      </c>
+      <c r="G280" t="s">
+        <v>694</v>
+      </c>
+      <c r="H280"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>683</v>
+      </c>
+      <c r="B281" t="s">
+        <v>684</v>
+      </c>
+      <c r="C281" t="s">
+        <v>695</v>
+      </c>
+      <c r="D281" t="s">
+        <v>113</v>
+      </c>
+      <c r="E281" t="s">
+        <v>589</v>
+      </c>
+      <c r="F281" t="s">
+        <v>590</v>
+      </c>
+      <c r="G281" t="s">
+        <v>660</v>
+      </c>
+      <c r="H281"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>683</v>
+      </c>
+      <c r="B282" t="s">
+        <v>684</v>
+      </c>
+      <c r="C282" t="s">
+        <v>696</v>
+      </c>
+      <c r="D282" t="s">
+        <v>62</v>
+      </c>
+      <c r="E282" t="s">
+        <v>684</v>
+      </c>
+      <c r="F282" t="s">
+        <v>435</v>
+      </c>
+      <c r="G282" t="s">
+        <v>517</v>
+      </c>
+      <c r="H282"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>683</v>
+      </c>
+      <c r="B283" t="s">
+        <v>684</v>
+      </c>
+      <c r="C283" t="s">
+        <v>697</v>
+      </c>
+      <c r="D283" t="s">
+        <v>62</v>
+      </c>
+      <c r="E283" t="s">
+        <v>684</v>
+      </c>
+      <c r="F283" t="s">
+        <v>435</v>
+      </c>
+      <c r="G283" t="s">
+        <v>698</v>
+      </c>
+      <c r="H283"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>683</v>
+      </c>
+      <c r="B284" t="s">
+        <v>684</v>
+      </c>
+      <c r="C284" t="s">
+        <v>699</v>
+      </c>
+      <c r="D284" t="s">
+        <v>62</v>
+      </c>
+      <c r="E284" t="s">
+        <v>684</v>
+      </c>
+      <c r="F284" t="s">
+        <v>435</v>
+      </c>
+      <c r="G284" t="s">
+        <v>700</v>
+      </c>
+      <c r="H284"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>683</v>
+      </c>
+      <c r="B285" t="s">
+        <v>684</v>
+      </c>
+      <c r="C285" t="s">
+        <v>701</v>
+      </c>
+      <c r="D285" t="s">
+        <v>62</v>
+      </c>
+      <c r="E285" t="s">
+        <v>684</v>
+      </c>
+      <c r="F285" t="s">
+        <v>435</v>
+      </c>
+      <c r="G285" t="s">
+        <v>702</v>
+      </c>
+      <c r="H285"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summaries/seqRunSummary.xlsx
+++ b/summaries/seqRunSummary.xlsx
@@ -65,691 +65,691 @@
     <t xml:space="preserve">VSP0765-4</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0934-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/8/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0935-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0936-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0937-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0938-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0939-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0940-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0941-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0942-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0943-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0944-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0945-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0946-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0947-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0948-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0949-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0950-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0951-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0952-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0953-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0954-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0955-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0956-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0957-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0958-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0959-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0960-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0961-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0962-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0963-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0964-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0965-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0966-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0967-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0968-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0969-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0970-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0971-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0972-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0973-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0974-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0975-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0976-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0977-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0978-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0979-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0980-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0981-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0982-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0983-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0984-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0985-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0986-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0987-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0988-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0989-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0990-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0991-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0992-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0993-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0994-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0995-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0996-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0997-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0998-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0999-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1000-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1001-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1002-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1003-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1004-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1005-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1006-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1007-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1008-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1009-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1010-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1011-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1012-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1013-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1014-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.110.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1015-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1016-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1017-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1018-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1019-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1020-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1021-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1022-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1023-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1024-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1025-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS-0094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9960-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seqRunControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHT2YGAFX2-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/22/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9961-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHT2YGAFX2-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0934-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/8/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0935-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0936-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0937-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0938-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0939-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0940-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0941-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0942-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0943-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0944-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0945-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0946-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0947-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0948-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0949-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0950-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0951-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0952-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0953-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0954-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0955-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0956-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0957-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0958-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.1.304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0959-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.1.222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0960-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0961-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0962-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0963-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0964-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0965-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0966-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0967-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0968-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0969-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0970-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0971-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0972-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0973-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0974-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0975-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0976-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0977-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0978-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0979-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0980-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0981-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0982-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0983-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0984-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0985-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0986-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0987-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0988-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0989-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0990-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0991-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0992-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0993-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0994-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0995-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0996-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0997-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0998-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0999-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1000-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1001-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1002-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1003-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1004-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1005-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1006-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1007-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1008-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1009-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1010-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1011-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1012-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1013-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1014-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.110.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1015-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1016-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1017-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1018-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1019-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1020-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1021-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1022-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1023-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1024-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP1025-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS-0094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP9960-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seqRunControl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AHT2YGAFX2-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/22/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP9961-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AHT2YGAFX2-1</t>
   </si>
   <si>
     <t xml:space="preserve">2021-03-09</t>
@@ -4420,9 +4420,11 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3"/>
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4432,19 +4434,19 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4458,22 +4460,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -4484,22 +4486,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -4510,22 +4512,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -4536,22 +4538,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -4562,22 +4564,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -4588,19 +4590,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
       </c>
       <c r="H10"/>
     </row>
@@ -4612,22 +4614,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -4638,22 +4640,22 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
       <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -4664,22 +4666,22 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -4690,22 +4692,22 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -4716,19 +4718,19 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
         <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
       </c>
       <c r="H15"/>
     </row>
@@ -4740,19 +4742,19 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
         <v>53</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
       </c>
       <c r="H16"/>
     </row>
@@ -4764,19 +4766,19 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
         <v>55</v>
       </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
         <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
       </c>
       <c r="H17"/>
     </row>
@@ -4788,19 +4790,19 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
         <v>58</v>
       </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
         <v>59</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
       </c>
       <c r="H18"/>
     </row>
@@ -4812,19 +4814,19 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
         <v>62</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
       </c>
       <c r="H19"/>
     </row>
@@ -4836,22 +4838,22 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
         <v>64</v>
       </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
         <v>65</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -4862,22 +4864,22 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
         <v>67</v>
       </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -4888,22 +4890,22 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>71</v>
-      </c>
       <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -4914,22 +4916,22 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -4940,22 +4942,22 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>76</v>
-      </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -4966,19 +4968,19 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
         <v>78</v>
-      </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>79</v>
       </c>
       <c r="H25"/>
     </row>
@@ -4990,22 +4992,22 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
         <v>80</v>
       </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
         <v>81</v>
       </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>82</v>
-      </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -5016,22 +5018,22 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
         <v>83</v>
       </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>84</v>
-      </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -5042,22 +5044,22 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
         <v>85</v>
       </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
         <v>86</v>
       </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>87</v>
-      </c>
-      <c r="H28" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -5068,22 +5070,22 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
         <v>89</v>
       </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>90</v>
-      </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -5094,22 +5096,22 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
         <v>92</v>
       </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
         <v>93</v>
-      </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -5120,19 +5122,19 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
         <v>95</v>
       </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
         <v>96</v>
-      </c>
-      <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>97</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -5146,19 +5148,19 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
         <v>98</v>
       </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
         <v>99</v>
-      </c>
-      <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>100</v>
       </c>
       <c r="H32"/>
     </row>
@@ -5170,19 +5172,19 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
         <v>101</v>
       </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
         <v>102</v>
-      </c>
-      <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>103</v>
       </c>
       <c r="H33"/>
     </row>
@@ -5194,22 +5196,22 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
         <v>104</v>
       </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>105</v>
-      </c>
       <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
         <v>20</v>
       </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
       <c r="H34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -5220,19 +5222,19 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
         <v>106</v>
       </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
         <v>107</v>
-      </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>108</v>
       </c>
       <c r="H35"/>
     </row>
@@ -5244,22 +5246,22 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
         <v>109</v>
       </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>110</v>
-      </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
@@ -5270,22 +5272,22 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
         <v>111</v>
       </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>112</v>
-      </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
@@ -5296,19 +5298,19 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
         <v>113</v>
       </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
         <v>114</v>
-      </c>
-      <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>115</v>
       </c>
       <c r="H38"/>
     </row>
@@ -5320,19 +5322,19 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
         <v>116</v>
       </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
         <v>117</v>
-      </c>
-      <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>118</v>
       </c>
       <c r="H39"/>
     </row>
@@ -5344,22 +5346,22 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
         <v>119</v>
       </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>120</v>
-      </c>
       <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
         <v>20</v>
       </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -5370,22 +5372,22 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
         <v>121</v>
       </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>122</v>
-      </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
@@ -5396,22 +5398,22 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
         <v>123</v>
       </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s">
         <v>124</v>
-      </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -5422,22 +5424,22 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
         <v>126</v>
       </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" t="s">
-        <v>127</v>
-      </c>
       <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
         <v>20</v>
       </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
       <c r="H43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
@@ -5448,22 +5450,22 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
         <v>128</v>
       </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>129</v>
-      </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
@@ -5474,22 +5476,22 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
         <v>130</v>
       </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" t="s">
-        <v>131</v>
-      </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
@@ -5500,19 +5502,19 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
         <v>132</v>
       </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
         <v>133</v>
-      </c>
-      <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>134</v>
       </c>
       <c r="H46"/>
     </row>
@@ -5524,19 +5526,19 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
         <v>135</v>
       </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" t="s">
-        <v>136</v>
-      </c>
       <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
         <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
@@ -5550,22 +5552,22 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
         <v>137</v>
       </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" t="s">
-        <v>138</v>
-      </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49">
@@ -5576,22 +5578,22 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
         <v>139</v>
       </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" t="s">
-        <v>140</v>
-      </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
@@ -5602,22 +5604,22 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
         <v>141</v>
       </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
-        <v>142</v>
-      </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
@@ -5628,22 +5630,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
         <v>143</v>
       </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>144</v>
-      </c>
       <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
         <v>20</v>
       </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
       <c r="H51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -5654,22 +5656,22 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
         <v>145</v>
       </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" t="s">
-        <v>146</v>
-      </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -5680,22 +5682,22 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
         <v>147</v>
       </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" t="s">
-        <v>148</v>
-      </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54">
@@ -5706,22 +5708,22 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
         <v>149</v>
       </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" t="s">
-        <v>150</v>
-      </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55">
@@ -5732,22 +5734,22 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
         <v>151</v>
       </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" t="s">
-        <v>152</v>
-      </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
@@ -5758,22 +5760,22 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
         <v>153</v>
       </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" t="s">
-        <v>154</v>
-      </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57">
@@ -5784,22 +5786,22 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
         <v>155</v>
       </c>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" t="s">
-        <v>156</v>
-      </c>
       <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
         <v>20</v>
       </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
       <c r="H57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
@@ -5810,22 +5812,22 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
         <v>157</v>
       </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" t="s">
-        <v>158</v>
-      </c>
       <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
         <v>20</v>
       </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
       <c r="H58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
@@ -5836,22 +5838,22 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
         <v>159</v>
       </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" t="s">
-        <v>160</v>
-      </c>
       <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
         <v>20</v>
       </c>
-      <c r="G59" t="s">
-        <v>21</v>
-      </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
@@ -5862,22 +5864,22 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
         <v>161</v>
       </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" t="s">
-        <v>162</v>
-      </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61">
@@ -5888,22 +5890,22 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
         <v>163</v>
       </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
         <v>164</v>
       </c>
-      <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>165</v>
-      </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
@@ -5914,22 +5916,22 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
         <v>166</v>
       </c>
-      <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" t="s">
-        <v>167</v>
-      </c>
       <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
         <v>20</v>
       </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
       <c r="H62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63">
@@ -5940,22 +5942,22 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
         <v>168</v>
       </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" t="s">
-        <v>169</v>
-      </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
         <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64">
@@ -5966,22 +5968,22 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
         <v>170</v>
       </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" t="s">
-        <v>171</v>
-      </c>
       <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
         <v>20</v>
       </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
       <c r="H64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
@@ -5992,22 +5994,22 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
         <v>172</v>
       </c>
-      <c r="D65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
         <v>173</v>
-      </c>
-      <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="66">
@@ -6018,22 +6020,22 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
         <v>175</v>
       </c>
-      <c r="D66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" t="s">
-        <v>176</v>
-      </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67">
@@ -6044,22 +6046,22 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
         <v>178</v>
       </c>
-      <c r="D67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" t="s">
-        <v>179</v>
-      </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
         <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
@@ -6070,19 +6072,19 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
         <v>180</v>
       </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" t="s">
-        <v>181</v>
-      </c>
       <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s">
         <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
       </c>
       <c r="H68" t="s">
         <v>15</v>
@@ -6096,22 +6098,22 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
         <v>182</v>
       </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" t="s">
-        <v>183</v>
-      </c>
       <c r="F69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s">
         <v>20</v>
       </c>
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
       <c r="H69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70">
@@ -6122,22 +6124,22 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
         <v>184</v>
       </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" t="s">
-        <v>185</v>
-      </c>
       <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
         <v>20</v>
       </c>
-      <c r="G70" t="s">
-        <v>21</v>
-      </c>
       <c r="H70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -6148,22 +6150,22 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
         <v>186</v>
       </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>187</v>
-      </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s">
         <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
@@ -6174,22 +6176,22 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
         <v>188</v>
       </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
         <v>189</v>
       </c>
-      <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>190</v>
-      </c>
       <c r="H72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
@@ -6200,22 +6202,22 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
         <v>191</v>
       </c>
-      <c r="D73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" t="s">
-        <v>192</v>
-      </c>
       <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
         <v>20</v>
       </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
       <c r="H73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74">
@@ -6226,22 +6228,22 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
+        <v>192</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
         <v>193</v>
       </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" t="s">
-        <v>194</v>
-      </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
@@ -6252,22 +6254,22 @@
         <v>9</v>
       </c>
       <c r="C75" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
         <v>195</v>
       </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" t="s">
-        <v>196</v>
-      </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G75" t="s">
         <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76">
@@ -6278,22 +6280,22 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
         <v>197</v>
       </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" t="s">
-        <v>198</v>
-      </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
         <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
@@ -6304,22 +6306,22 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
         <v>199</v>
       </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" t="s">
-        <v>200</v>
-      </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" t="s">
         <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78">
@@ -6330,22 +6332,22 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
         <v>201</v>
       </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s">
-        <v>202</v>
-      </c>
       <c r="F78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s">
         <v>20</v>
       </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
       <c r="H78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79">
@@ -6356,22 +6358,22 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
         <v>203</v>
       </c>
-      <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" t="s">
-        <v>204</v>
-      </c>
       <c r="F79" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s">
         <v>20</v>
       </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
       <c r="H79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
@@ -6382,22 +6384,22 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
         <v>205</v>
       </c>
-      <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" t="s">
-        <v>206</v>
-      </c>
       <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s">
         <v>20</v>
       </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
       <c r="H80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81">
@@ -6408,22 +6410,22 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
         <v>207</v>
       </c>
-      <c r="D81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" t="s">
-        <v>208</v>
-      </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
         <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82">
@@ -6434,22 +6436,22 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
         <v>209</v>
       </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" t="s">
-        <v>210</v>
-      </c>
       <c r="F82" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s">
         <v>20</v>
       </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
       <c r="H82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
@@ -6460,22 +6462,22 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
         <v>211</v>
       </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" t="s">
-        <v>212</v>
-      </c>
       <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s">
         <v>20</v>
       </c>
-      <c r="G83" t="s">
-        <v>21</v>
-      </c>
       <c r="H83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
@@ -6486,22 +6488,22 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
         <v>213</v>
       </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" t="s">
         <v>214</v>
-      </c>
-      <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="85">
@@ -6512,22 +6514,22 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
+        <v>215</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
         <v>216</v>
       </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" t="s">
-        <v>217</v>
-      </c>
       <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s">
         <v>20</v>
       </c>
-      <c r="G85" t="s">
-        <v>21</v>
-      </c>
       <c r="H85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
@@ -6538,22 +6540,22 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
+        <v>217</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
         <v>218</v>
       </c>
-      <c r="D86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" t="s">
-        <v>219</v>
-      </c>
       <c r="F86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G86" t="s">
         <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
@@ -6564,22 +6566,22 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
+        <v>219</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
         <v>220</v>
       </c>
-      <c r="D87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" t="s">
-        <v>221</v>
-      </c>
       <c r="F87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" t="s">
         <v>20</v>
       </c>
-      <c r="G87" t="s">
-        <v>21</v>
-      </c>
       <c r="H87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
@@ -6590,22 +6592,22 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
+        <v>221</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
         <v>222</v>
       </c>
-      <c r="D88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" t="s">
-        <v>223</v>
-      </c>
       <c r="F88" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" t="s">
         <v>20</v>
       </c>
-      <c r="G88" t="s">
-        <v>21</v>
-      </c>
       <c r="H88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
@@ -6616,22 +6618,22 @@
         <v>9</v>
       </c>
       <c r="C89" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
         <v>224</v>
       </c>
-      <c r="D89" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" t="s">
-        <v>225</v>
-      </c>
       <c r="F89" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s">
         <v>20</v>
       </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
       <c r="H89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90">
@@ -6642,22 +6644,22 @@
         <v>9</v>
       </c>
       <c r="C90" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
         <v>226</v>
       </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s">
         <v>227</v>
-      </c>
-      <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>21</v>
-      </c>
-      <c r="H90" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="91">
@@ -6668,22 +6670,22 @@
         <v>9</v>
       </c>
       <c r="C91" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
         <v>229</v>
       </c>
-      <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" t="s">
-        <v>230</v>
-      </c>
       <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
         <v>20</v>
       </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
       <c r="H91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
@@ -6694,22 +6696,22 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
+        <v>230</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
         <v>231</v>
       </c>
-      <c r="D92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" t="s">
-        <v>232</v>
-      </c>
       <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
         <v>20</v>
       </c>
-      <c r="G92" t="s">
-        <v>21</v>
-      </c>
       <c r="H92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
@@ -6720,22 +6722,22 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
+        <v>232</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
         <v>233</v>
       </c>
-      <c r="D93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" t="s">
         <v>234</v>
-      </c>
-      <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H93" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="94">
@@ -6746,22 +6748,22 @@
         <v>9</v>
       </c>
       <c r="C94" t="s">
+        <v>235</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
         <v>236</v>
       </c>
-      <c r="D94" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" t="s">
-        <v>237</v>
-      </c>
       <c r="F94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G94" t="s">
         <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
@@ -6772,22 +6774,22 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
+        <v>237</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
         <v>238</v>
       </c>
-      <c r="D95" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" t="s">
-        <v>239</v>
-      </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G95" t="s">
         <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -6798,16 +6800,16 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
+        <v>239</v>
+      </c>
+      <c r="D96" t="s">
         <v>240</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>241</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>242</v>
-      </c>
-      <c r="F96" t="s">
-        <v>243</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -6820,23 +6822,21 @@
         <v>9</v>
       </c>
       <c r="C97" t="s">
+        <v>243</v>
+      </c>
+      <c r="D97" t="s">
+        <v>240</v>
+      </c>
+      <c r="E97" t="s">
         <v>244</v>
       </c>
-      <c r="D97" t="s">
-        <v>241</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
+        <v>242</v>
+      </c>
+      <c r="G97" t="s">
         <v>245</v>
       </c>
-      <c r="F97" t="s">
-        <v>243</v>
-      </c>
-      <c r="G97" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" t="s">
-        <v>15</v>
-      </c>
+      <c r="H97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -6861,7 +6861,7 @@
         <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
@@ -6911,7 +6911,7 @@
         <v>257</v>
       </c>
       <c r="H100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101">
@@ -6937,7 +6937,7 @@
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
@@ -6987,7 +6987,7 @@
         <v>265</v>
       </c>
       <c r="H103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104">
@@ -7082,7 +7082,7 @@
         <v>280</v>
       </c>
       <c r="G107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H107" t="s">
         <v>281</v>
@@ -7160,10 +7160,10 @@
         <v>291</v>
       </c>
       <c r="G110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111">
@@ -7186,7 +7186,7 @@
         <v>291</v>
       </c>
       <c r="G111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H111" t="s">
         <v>294</v>
@@ -7241,7 +7241,7 @@
         <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114">
@@ -7288,10 +7288,10 @@
         <v>306</v>
       </c>
       <c r="G115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116">
@@ -7314,10 +7314,10 @@
         <v>306</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H116" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117">
@@ -7340,7 +7340,7 @@
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H117" t="s">
         <v>15</v>
@@ -7366,7 +7366,7 @@
         <v>312</v>
       </c>
       <c r="G118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H118" t="s">
         <v>15</v>
@@ -7419,7 +7419,7 @@
         <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121">
@@ -7469,7 +7469,7 @@
         <v>324</v>
       </c>
       <c r="H122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123">
@@ -7495,7 +7495,7 @@
         <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124">
@@ -7518,10 +7518,10 @@
         <v>315</v>
       </c>
       <c r="G124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125">
@@ -7547,7 +7547,7 @@
         <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126">
@@ -7573,7 +7573,7 @@
         <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127">
@@ -7649,7 +7649,7 @@
         <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
@@ -7696,10 +7696,10 @@
         <v>312</v>
       </c>
       <c r="G131" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H131" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132">
@@ -7749,7 +7749,7 @@
         <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134">
@@ -7772,10 +7772,10 @@
         <v>350</v>
       </c>
       <c r="G134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H134" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135">
@@ -7798,10 +7798,10 @@
         <v>350</v>
       </c>
       <c r="G135" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H135" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136">
@@ -7824,10 +7824,10 @@
         <v>350</v>
       </c>
       <c r="G136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H136" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137">
@@ -7850,10 +7850,10 @@
         <v>350</v>
       </c>
       <c r="G137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H137" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="138">
@@ -7905,7 +7905,7 @@
         <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140">
@@ -7931,7 +7931,7 @@
         <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141">
@@ -7954,10 +7954,10 @@
         <v>350</v>
       </c>
       <c r="G141" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142">
@@ -7980,10 +7980,10 @@
         <v>350</v>
       </c>
       <c r="G142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
@@ -8006,10 +8006,10 @@
         <v>350</v>
       </c>
       <c r="G143" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144">
@@ -8032,10 +8032,10 @@
         <v>350</v>
       </c>
       <c r="G144" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
@@ -8061,7 +8061,7 @@
         <v>377</v>
       </c>
       <c r="H145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146">
@@ -8075,7 +8075,7 @@
         <v>378</v>
       </c>
       <c r="D146" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E146" t="s">
         <v>379</v>
@@ -8108,7 +8108,7 @@
         <v>386</v>
       </c>
       <c r="G147" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H147"/>
     </row>
@@ -8329,7 +8329,7 @@
         <v>416</v>
       </c>
       <c r="H156" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157">
@@ -8526,7 +8526,7 @@
         <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H164" t="s">
         <v>15</v>
@@ -8619,7 +8619,7 @@
         <v>446</v>
       </c>
       <c r="D168" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E168" t="s">
         <v>447</v>
@@ -8655,7 +8655,7 @@
         <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="170">
@@ -8702,10 +8702,10 @@
         <v>458</v>
       </c>
       <c r="G171" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172">
@@ -8731,7 +8731,7 @@
         <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="173">
@@ -8757,7 +8757,7 @@
         <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174">
@@ -8780,7 +8780,7 @@
         <v>466</v>
       </c>
       <c r="G174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H174" t="s">
         <v>467</v>
@@ -8806,10 +8806,10 @@
         <v>470</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176">
@@ -8856,10 +8856,10 @@
         <v>473</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178">
@@ -8882,10 +8882,10 @@
         <v>473</v>
       </c>
       <c r="G178" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H178" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179">
@@ -8899,7 +8899,7 @@
         <v>479</v>
       </c>
       <c r="D179" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E179" t="s">
         <v>480</v>
@@ -8961,7 +8961,7 @@
         <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182">
@@ -9013,7 +9013,7 @@
         <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="184">
@@ -9084,7 +9084,7 @@
         <v>312</v>
       </c>
       <c r="G186" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H186" t="s">
         <v>501</v>
@@ -9110,10 +9110,10 @@
         <v>312</v>
       </c>
       <c r="G187" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188">
@@ -9139,7 +9139,7 @@
         <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189">
@@ -9162,10 +9162,10 @@
         <v>312</v>
       </c>
       <c r="G189" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190">
@@ -9191,7 +9191,7 @@
         <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191">
@@ -9217,7 +9217,7 @@
         <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192">
@@ -9293,7 +9293,7 @@
         <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195">
@@ -9319,7 +9319,7 @@
         <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="196">
@@ -9333,7 +9333,7 @@
         <v>446</v>
       </c>
       <c r="D196" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E196" t="s">
         <v>447</v>
@@ -9366,7 +9366,7 @@
         <v>386</v>
       </c>
       <c r="G197" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H197"/>
     </row>
@@ -9440,10 +9440,10 @@
         <v>251</v>
       </c>
       <c r="G200" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H200" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="201">
@@ -9469,7 +9469,7 @@
         <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="202">
@@ -9492,10 +9492,10 @@
         <v>251</v>
       </c>
       <c r="G202" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H202" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="203">
@@ -9521,7 +9521,7 @@
         <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="204">
@@ -9547,7 +9547,7 @@
         <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="205">
@@ -9573,7 +9573,7 @@
         <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="206">
@@ -9599,7 +9599,7 @@
         <v>14</v>
       </c>
       <c r="H206" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="207">
@@ -9625,7 +9625,7 @@
         <v>14</v>
       </c>
       <c r="H207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="208">
@@ -9675,7 +9675,7 @@
         <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="210">
@@ -9698,10 +9698,10 @@
         <v>251</v>
       </c>
       <c r="G210" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H210" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="211">
@@ -9727,7 +9727,7 @@
         <v>553</v>
       </c>
       <c r="H211" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212">
@@ -9763,7 +9763,7 @@
         <v>555</v>
       </c>
       <c r="D213" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E213" t="s">
         <v>556</v>
@@ -9796,10 +9796,10 @@
         <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H214" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="215">
@@ -9822,10 +9822,10 @@
         <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H215" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="216">
@@ -9875,7 +9875,7 @@
         <v>377</v>
       </c>
       <c r="H217" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="218">
@@ -9901,7 +9901,7 @@
         <v>14</v>
       </c>
       <c r="H218" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219">
@@ -9953,7 +9953,7 @@
         <v>570</v>
       </c>
       <c r="H220" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="221">
@@ -10051,7 +10051,7 @@
         <v>578</v>
       </c>
       <c r="H224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225">
@@ -10101,7 +10101,7 @@
         <v>582</v>
       </c>
       <c r="H226" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227">
@@ -10127,7 +10127,7 @@
         <v>584</v>
       </c>
       <c r="H227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228">
@@ -10153,7 +10153,7 @@
         <v>586</v>
       </c>
       <c r="H228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229">
@@ -10193,7 +10193,7 @@
         <v>589</v>
       </c>
       <c r="D230" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E230" t="s">
         <v>590</v>
@@ -10255,7 +10255,7 @@
         <v>14</v>
       </c>
       <c r="H232" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="233">
@@ -10278,10 +10278,10 @@
         <v>602</v>
       </c>
       <c r="G233" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H233" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234">
@@ -10307,7 +10307,7 @@
         <v>14</v>
       </c>
       <c r="H234" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="235">
@@ -10333,7 +10333,7 @@
         <v>14</v>
       </c>
       <c r="H235" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="236">
@@ -10631,7 +10631,7 @@
         <v>630</v>
       </c>
       <c r="D247" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E247" t="s">
         <v>631</v>
@@ -10667,7 +10667,7 @@
         <v>14</v>
       </c>
       <c r="H248" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="249">
@@ -10717,7 +10717,7 @@
         <v>361</v>
       </c>
       <c r="H250" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="251">
@@ -10743,7 +10743,7 @@
         <v>14</v>
       </c>
       <c r="H251" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="252">
@@ -10766,10 +10766,10 @@
         <v>463</v>
       </c>
       <c r="G252" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H252" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="253">
@@ -10818,10 +10818,10 @@
         <v>470</v>
       </c>
       <c r="G254" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H254" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255">
@@ -10868,10 +10868,10 @@
         <v>473</v>
       </c>
       <c r="G256" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H256" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257">
@@ -10897,7 +10897,7 @@
         <v>361</v>
       </c>
       <c r="H257" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="258">
@@ -10911,7 +10911,7 @@
         <v>647</v>
       </c>
       <c r="D258" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E258" t="s">
         <v>480</v>
@@ -10944,10 +10944,10 @@
         <v>473</v>
       </c>
       <c r="G259" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H259" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="260">
@@ -11021,7 +11021,7 @@
         <v>361</v>
       </c>
       <c r="H262" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="263">
@@ -11047,7 +11047,7 @@
         <v>14</v>
       </c>
       <c r="H263" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="264">
@@ -11070,7 +11070,7 @@
         <v>654</v>
       </c>
       <c r="G264" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H264"/>
     </row>
@@ -11097,7 +11097,7 @@
         <v>667</v>
       </c>
       <c r="H265" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="266">
@@ -11123,7 +11123,7 @@
         <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="267">
@@ -11149,7 +11149,7 @@
         <v>14</v>
       </c>
       <c r="H267" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="268">
@@ -11175,7 +11175,7 @@
         <v>14</v>
       </c>
       <c r="H268" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="269">
@@ -11201,7 +11201,7 @@
         <v>14</v>
       </c>
       <c r="H269" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="270">
@@ -11250,10 +11250,10 @@
         <v>654</v>
       </c>
       <c r="G271" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H271" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="272">
@@ -11276,10 +11276,10 @@
         <v>654</v>
       </c>
       <c r="G272" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H272" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273">
@@ -11305,7 +11305,7 @@
         <v>14</v>
       </c>
       <c r="H273" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="274">
@@ -11345,7 +11345,7 @@
         <v>686</v>
       </c>
       <c r="D275" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E275" t="s">
         <v>687</v>
@@ -11431,7 +11431,7 @@
         <v>14</v>
       </c>
       <c r="H278" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="279">
@@ -11457,7 +11457,7 @@
         <v>14</v>
       </c>
       <c r="H279" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="280">
@@ -11480,10 +11480,10 @@
         <v>706</v>
       </c>
       <c r="G280" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H280" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281">
@@ -11509,7 +11509,7 @@
         <v>14</v>
       </c>
       <c r="H281" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="282">
@@ -11532,10 +11532,10 @@
         <v>709</v>
       </c>
       <c r="G282" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H282" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="283">
@@ -11561,7 +11561,7 @@
         <v>14</v>
       </c>
       <c r="H283" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="284">
@@ -11611,7 +11611,7 @@
         <v>14</v>
       </c>
       <c r="H285" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="286">
@@ -11637,7 +11637,7 @@
         <v>14</v>
       </c>
       <c r="H286" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="287">
@@ -11663,7 +11663,7 @@
         <v>14</v>
       </c>
       <c r="H287" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="288">
@@ -11686,10 +11686,10 @@
         <v>723</v>
       </c>
       <c r="G288" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H288" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="289">
@@ -11715,7 +11715,7 @@
         <v>14</v>
       </c>
       <c r="H289" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="290">
@@ -11738,10 +11738,10 @@
         <v>728</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H290" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="291">
@@ -11767,7 +11767,7 @@
         <v>14</v>
       </c>
       <c r="H291" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="292">
@@ -11781,7 +11781,7 @@
         <v>733</v>
       </c>
       <c r="D292" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E292" t="s">
         <v>734</v>
@@ -11814,10 +11814,10 @@
         <v>740</v>
       </c>
       <c r="G293" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H293" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="294">
@@ -11867,7 +11867,7 @@
         <v>748</v>
       </c>
       <c r="H295" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="296">
@@ -11893,7 +11893,7 @@
         <v>14</v>
       </c>
       <c r="H296" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="297">
@@ -11919,7 +11919,7 @@
         <v>14</v>
       </c>
       <c r="H297" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="298">
@@ -11942,10 +11942,10 @@
         <v>753</v>
       </c>
       <c r="G298" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H298" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="299">
@@ -11971,7 +11971,7 @@
         <v>14</v>
       </c>
       <c r="H299" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="300">
@@ -11997,7 +11997,7 @@
         <v>14</v>
       </c>
       <c r="H300" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="301">
@@ -12049,7 +12049,7 @@
         <v>14</v>
       </c>
       <c r="H302" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="303">
@@ -12075,7 +12075,7 @@
         <v>14</v>
       </c>
       <c r="H303" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="304">
@@ -12098,10 +12098,10 @@
         <v>773</v>
       </c>
       <c r="G304" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H304" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="305">
@@ -12124,10 +12124,10 @@
         <v>776</v>
       </c>
       <c r="G305" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H305" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="306">
@@ -12153,7 +12153,7 @@
         <v>14</v>
       </c>
       <c r="H306" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="307">
@@ -12179,7 +12179,7 @@
         <v>14</v>
       </c>
       <c r="H307" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="308">
@@ -12202,10 +12202,10 @@
         <v>785</v>
       </c>
       <c r="G308" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H308" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="309">
@@ -12283,7 +12283,7 @@
         <v>14</v>
       </c>
       <c r="H311" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="312">
@@ -12297,7 +12297,7 @@
         <v>795</v>
       </c>
       <c r="D312" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E312" t="s">
         <v>796</v>
@@ -12333,7 +12333,7 @@
         <v>324</v>
       </c>
       <c r="H313" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314">
@@ -12356,10 +12356,10 @@
         <v>806</v>
       </c>
       <c r="G314" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H314" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="315">
@@ -12493,7 +12493,7 @@
         <v>823</v>
       </c>
       <c r="D320" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E320" t="s">
         <v>824</v>
@@ -12502,7 +12502,7 @@
         <v>825</v>
       </c>
       <c r="G320" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H320"/>
     </row>
@@ -12529,7 +12529,7 @@
         <v>568</v>
       </c>
       <c r="H321" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="322">
@@ -12552,10 +12552,10 @@
         <v>806</v>
       </c>
       <c r="G322" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H322" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="323">
@@ -12689,7 +12689,7 @@
         <v>838</v>
       </c>
       <c r="D328" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E328" t="s">
         <v>824</v>
@@ -12795,7 +12795,7 @@
         <v>14</v>
       </c>
       <c r="H332" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="333">
@@ -12818,10 +12818,10 @@
         <v>393</v>
       </c>
       <c r="G333" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H333" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="334">
@@ -12847,7 +12847,7 @@
         <v>14</v>
       </c>
       <c r="H334" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="335">
@@ -12873,7 +12873,7 @@
         <v>857</v>
       </c>
       <c r="H335" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="336">
@@ -12899,7 +12899,7 @@
         <v>860</v>
       </c>
       <c r="H336" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="337">
@@ -12925,7 +12925,7 @@
         <v>14</v>
       </c>
       <c r="H337" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="338">
@@ -12999,7 +12999,7 @@
         <v>265</v>
       </c>
       <c r="H340" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="341">
@@ -13025,7 +13025,7 @@
         <v>361</v>
       </c>
       <c r="H341" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="342">
@@ -13075,7 +13075,7 @@
         <v>361</v>
       </c>
       <c r="H343" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="344">
@@ -13149,7 +13149,7 @@
         <v>14</v>
       </c>
       <c r="H346" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="347">
@@ -13225,7 +13225,7 @@
         <v>14</v>
       </c>
       <c r="H349" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="350">
@@ -13248,7 +13248,7 @@
         <v>897</v>
       </c>
       <c r="G350" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H350" t="s">
         <v>898</v>
@@ -13265,7 +13265,7 @@
         <v>899</v>
       </c>
       <c r="D351" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E351" t="s">
         <v>900</v>
@@ -13353,7 +13353,7 @@
         <v>14</v>
       </c>
       <c r="H354" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="355">
@@ -13403,7 +13403,7 @@
         <v>860</v>
       </c>
       <c r="H356" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="357">
@@ -13429,7 +13429,7 @@
         <v>361</v>
       </c>
       <c r="H357" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="358">
@@ -13452,10 +13452,10 @@
         <v>921</v>
       </c>
       <c r="G358" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H358" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="359">
@@ -13478,10 +13478,10 @@
         <v>924</v>
       </c>
       <c r="G359" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H359" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="360">
@@ -13504,10 +13504,10 @@
         <v>926</v>
       </c>
       <c r="G360" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H360" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="361">
@@ -13704,10 +13704,10 @@
         <v>947</v>
       </c>
       <c r="G368" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H368" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="369">
@@ -13730,10 +13730,10 @@
         <v>949</v>
       </c>
       <c r="G369" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H369" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="370">
@@ -13759,7 +13759,7 @@
         <v>14</v>
       </c>
       <c r="H370" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="371">
@@ -13785,7 +13785,7 @@
         <v>377</v>
       </c>
       <c r="H371" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="372">
@@ -13811,7 +13811,7 @@
         <v>14</v>
       </c>
       <c r="H372" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="373">
@@ -13825,7 +13825,7 @@
         <v>954</v>
       </c>
       <c r="D373" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E373" t="s">
         <v>955</v>
@@ -14201,7 +14201,7 @@
         <v>994</v>
       </c>
       <c r="D390" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E390" t="s">
         <v>995</v>
@@ -14256,10 +14256,10 @@
         <v>911</v>
       </c>
       <c r="G392" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H392" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="393">
@@ -14282,10 +14282,10 @@
         <v>913</v>
       </c>
       <c r="G393" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H393" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="394">
@@ -14311,7 +14311,7 @@
         <v>14</v>
       </c>
       <c r="H394" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="395">
@@ -14334,10 +14334,10 @@
         <v>916</v>
       </c>
       <c r="G395" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H395" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="396">
@@ -14415,7 +14415,7 @@
         <v>1010</v>
       </c>
       <c r="H398" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="399">
@@ -14534,7 +14534,7 @@
         <v>1025</v>
       </c>
       <c r="G403" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H403" t="s">
         <v>294</v>
@@ -14599,7 +14599,7 @@
         <v>1033</v>
       </c>
       <c r="D406" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E406" t="s">
         <v>1034</v>
@@ -14608,7 +14608,7 @@
         <v>1035</v>
       </c>
       <c r="G406" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="H406"/>
     </row>
@@ -14635,7 +14635,7 @@
         <v>14</v>
       </c>
       <c r="H407" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="408">
@@ -14908,7 +14908,7 @@
         <v>1060</v>
       </c>
       <c r="G418" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H418"/>
     </row>
@@ -14995,7 +14995,7 @@
         <v>1072</v>
       </c>
       <c r="D422" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E422" t="s">
         <v>1073</v>
@@ -15004,7 +15004,7 @@
         <v>1074</v>
       </c>
       <c r="G422" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="H422"/>
     </row>
@@ -15031,7 +15031,7 @@
         <v>1080</v>
       </c>
       <c r="H423" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="424">
@@ -15054,10 +15054,10 @@
         <v>1079</v>
       </c>
       <c r="G424" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H424" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="425">
@@ -15083,7 +15083,7 @@
         <v>857</v>
       </c>
       <c r="H425" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="426">
@@ -15342,10 +15342,10 @@
         <v>1105</v>
       </c>
       <c r="G436" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H436" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="437">
@@ -15385,7 +15385,7 @@
         <v>1107</v>
       </c>
       <c r="D438" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E438" t="s">
         <v>1108</v>
@@ -15421,7 +15421,7 @@
         <v>1115</v>
       </c>
       <c r="H439" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="440">
@@ -15447,7 +15447,7 @@
         <v>1117</v>
       </c>
       <c r="H440" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="441">
@@ -15473,7 +15473,7 @@
         <v>1056</v>
       </c>
       <c r="H441" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="442">
@@ -15568,7 +15568,7 @@
         <v>913</v>
       </c>
       <c r="G445" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H445"/>
     </row>
@@ -15775,7 +15775,7 @@
         <v>1143</v>
       </c>
       <c r="D454" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E454" t="s">
         <v>1144</v>
@@ -15835,7 +15835,7 @@
         <v>14</v>
       </c>
       <c r="H456" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="457">
@@ -15887,7 +15887,7 @@
         <v>860</v>
       </c>
       <c r="H458" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="459">
@@ -15910,10 +15910,10 @@
         <v>921</v>
       </c>
       <c r="G459" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H459" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="460">
@@ -15962,7 +15962,7 @@
         <v>1060</v>
       </c>
       <c r="G461" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H461"/>
     </row>
@@ -16003,7 +16003,7 @@
         <v>1158</v>
       </c>
       <c r="D463" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E463" t="s">
         <v>1159</v>
@@ -16038,10 +16038,10 @@
         <v>1001</v>
       </c>
       <c r="G464" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H464" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="465">
@@ -16064,10 +16064,10 @@
         <v>1114</v>
       </c>
       <c r="G465" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H465" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="466">
@@ -16090,10 +16090,10 @@
         <v>911</v>
       </c>
       <c r="G466" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H466" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="467">
@@ -16143,7 +16143,7 @@
         <v>361</v>
       </c>
       <c r="H468" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="469">
@@ -16190,10 +16190,10 @@
         <v>1138</v>
       </c>
       <c r="G470" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H470" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="471">
@@ -16219,7 +16219,7 @@
         <v>14</v>
       </c>
       <c r="H471" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="472">
@@ -16321,7 +16321,7 @@
         <v>14</v>
       </c>
       <c r="H475" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="476">
@@ -16347,7 +16347,7 @@
         <v>570</v>
       </c>
       <c r="H476" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="477">
@@ -16409,7 +16409,7 @@
         <v>1189</v>
       </c>
       <c r="D479" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E479" t="s">
         <v>1190</v>
@@ -16493,7 +16493,7 @@
         <v>14</v>
       </c>
       <c r="H482" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="483">
@@ -16664,10 +16664,10 @@
         <v>1001</v>
       </c>
       <c r="G489" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H489" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="490">
@@ -16690,10 +16690,10 @@
         <v>1114</v>
       </c>
       <c r="G490" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H490" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="491">
@@ -16767,7 +16767,7 @@
         <v>1224</v>
       </c>
       <c r="H493" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="494">
@@ -16814,10 +16814,10 @@
         <v>1105</v>
       </c>
       <c r="G495" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H495" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="496">
@@ -16831,7 +16831,7 @@
         <v>1228</v>
       </c>
       <c r="D496" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E496" t="s">
         <v>1229</v>
@@ -16912,10 +16912,10 @@
         <v>906</v>
       </c>
       <c r="G499" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H499" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="500">
@@ -17124,7 +17124,7 @@
         <v>1001</v>
       </c>
       <c r="G508" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H508" t="s">
         <v>281</v>
@@ -17203,7 +17203,7 @@
         <v>14</v>
       </c>
       <c r="H511" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="512">
@@ -17217,7 +17217,7 @@
         <v>1257</v>
       </c>
       <c r="D512" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E512" t="s">
         <v>1258</v>
@@ -17451,7 +17451,7 @@
         <v>1281</v>
       </c>
       <c r="H521" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="522">
@@ -17474,10 +17474,10 @@
         <v>924</v>
       </c>
       <c r="G522" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H522" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="523">
@@ -17500,10 +17500,10 @@
         <v>924</v>
       </c>
       <c r="G523" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H523" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="524">
@@ -17526,10 +17526,10 @@
         <v>926</v>
       </c>
       <c r="G524" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H524" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="525">
@@ -17552,10 +17552,10 @@
         <v>924</v>
       </c>
       <c r="G525" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H525" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="526">
@@ -17578,10 +17578,10 @@
         <v>1289</v>
       </c>
       <c r="G526" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H526" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="527">
@@ -17604,10 +17604,10 @@
         <v>1291</v>
       </c>
       <c r="G527" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H527" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="528">
@@ -17630,10 +17630,10 @@
         <v>1291</v>
       </c>
       <c r="G528" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H528" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="529">
@@ -17647,7 +17647,7 @@
         <v>1293</v>
       </c>
       <c r="D529" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E529" t="s">
         <v>1294</v>
@@ -17671,7 +17671,7 @@
         <v>1295</v>
       </c>
       <c r="D530" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E530" t="s">
         <v>1294</v>
@@ -17695,7 +17695,7 @@
         <v>1296</v>
       </c>
       <c r="D531" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E531" t="s">
         <v>1294</v>
@@ -17719,7 +17719,7 @@
         <v>1298</v>
       </c>
       <c r="D532" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E532" t="s">
         <v>1294</v>
@@ -17752,7 +17752,7 @@
         <v>1237</v>
       </c>
       <c r="G533" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H533"/>
     </row>
@@ -17827,7 +17827,7 @@
         <v>14</v>
       </c>
       <c r="H536" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="537">
@@ -17889,7 +17889,7 @@
         <v>1313</v>
       </c>
       <c r="D539" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E539" t="s">
         <v>1314</v>
@@ -17913,7 +17913,7 @@
         <v>1315</v>
       </c>
       <c r="D540" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E540" t="s">
         <v>1314</v>
@@ -17937,7 +17937,7 @@
         <v>1316</v>
       </c>
       <c r="D541" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E541" t="s">
         <v>1314</v>
@@ -17961,7 +17961,7 @@
         <v>1317</v>
       </c>
       <c r="D542" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E542" t="s">
         <v>1314</v>
@@ -18019,7 +18019,7 @@
         <v>14</v>
       </c>
       <c r="H544" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="545">
@@ -18067,7 +18067,7 @@
         <v>860</v>
       </c>
       <c r="H546" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="547">
@@ -18088,10 +18088,10 @@
         <v>1323</v>
       </c>
       <c r="G547" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H547" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
